--- a/[5] Tester Results/CORRELATIONS_BY_SEX_DATE_PARAMETRIC.xlsx
+++ b/[5] Tester Results/CORRELATIONS_BY_SEX_DATE_PARAMETRIC.xlsx
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-0.02244614360296807</v>
+        <v>-0.09489240408249248</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8757625193800679</v>
+        <v>0.5077378048282933</v>
       </c>
       <c r="G2" t="n">
         <v>51</v>
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-0.6245891864103078</v>
+        <v>-0.1220987322334426</v>
       </c>
       <c r="F3" t="n">
-        <v>9.66522839755408e-07</v>
+        <v>0.3933585485356347</v>
       </c>
       <c r="G3" t="n">
         <v>51</v>
@@ -554,10 +554,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-0.6789680296168457</v>
+        <v>-0.2474015594171133</v>
       </c>
       <c r="F4" t="n">
-        <v>4.337985935231275e-08</v>
+        <v>0.08006264662140726</v>
       </c>
       <c r="G4" t="n">
         <v>51</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.6795671513030415</v>
+        <v>-0.2522949614394037</v>
       </c>
       <c r="F5" t="n">
-        <v>4.176908950350929e-08</v>
+        <v>0.07408366288532298</v>
       </c>
       <c r="G5" t="n">
         <v>51</v>
@@ -616,10 +616,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-0.6516859341044893</v>
+        <v>-0.2332374274622957</v>
       </c>
       <c r="F6" t="n">
-        <v>2.224441138645696e-07</v>
+        <v>0.0995250977777643</v>
       </c>
       <c r="G6" t="n">
         <v>51</v>
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-0.7321474938933984</v>
+        <v>-0.2492642082230329</v>
       </c>
       <c r="F7" t="n">
-        <v>1.027328553397703e-09</v>
+        <v>0.07774351866415054</v>
       </c>
       <c r="G7" t="n">
         <v>51</v>
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-0.2404616073068048</v>
+        <v>-0.1391680424749189</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08918617369232248</v>
+        <v>0.3300714493406343</v>
       </c>
       <c r="G8" t="n">
         <v>51</v>
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-0.748347972553762</v>
+        <v>-0.1953488471421629</v>
       </c>
       <c r="F9" t="n">
-        <v>2.741930823105162e-10</v>
+        <v>0.1695158352023677</v>
       </c>
       <c r="G9" t="n">
         <v>51</v>
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-0.02244614360296807</v>
+        <v>-0.09489240408249248</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8757625193800679</v>
+        <v>0.5077378048282933</v>
       </c>
       <c r="G10" t="n">
         <v>51</v>
@@ -771,10 +771,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.794776346727462</v>
+        <v>0.9996254986654667</v>
       </c>
       <c r="F11" t="n">
-        <v>3.329429522299034e-12</v>
+        <v>3.003534023827332e-78</v>
       </c>
       <c r="G11" t="n">
         <v>51</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.204922972306997</v>
+        <v>-0.05262660871801841</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1491553262357367</v>
+        <v>0.7137933898240064</v>
       </c>
       <c r="G12" t="n">
         <v>51</v>
@@ -833,10 +833,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.2088447899254102</v>
+        <v>-0.0563042135763642</v>
       </c>
       <c r="F13" t="n">
-        <v>0.14135923559083</v>
+        <v>0.69473628708218</v>
       </c>
       <c r="G13" t="n">
         <v>51</v>
@@ -864,10 +864,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.185998355884277</v>
+        <v>0.01787188212109037</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1912802430419658</v>
+        <v>0.9009379897187754</v>
       </c>
       <c r="G14" t="n">
         <v>51</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.2273833707276837</v>
+        <v>-0.1224642912675598</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1085634355204408</v>
+        <v>0.3919328728522704</v>
       </c>
       <c r="G15" t="n">
         <v>51</v>
@@ -926,10 +926,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.1979128098737249</v>
+        <v>-0.5181123973025762</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1638754392129724</v>
+        <v>9.85209741446905e-05</v>
       </c>
       <c r="G16" t="n">
         <v>51</v>
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.2528218275750855</v>
+        <v>-0.3724951844659068</v>
       </c>
       <c r="F17" t="n">
-        <v>0.07346158944076987</v>
+        <v>0.007106185392101835</v>
       </c>
       <c r="G17" t="n">
         <v>51</v>
@@ -988,10 +988,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-0.6245891864103078</v>
+        <v>-0.1220987322334426</v>
       </c>
       <c r="F18" t="n">
-        <v>9.66522839755408e-07</v>
+        <v>0.3933585485356347</v>
       </c>
       <c r="G18" t="n">
         <v>51</v>
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.794776346727462</v>
+        <v>0.9996254986654667</v>
       </c>
       <c r="F19" t="n">
-        <v>3.329429522299034e-12</v>
+        <v>3.003534023827332e-78</v>
       </c>
       <c r="G19" t="n">
         <v>51</v>
@@ -1050,10 +1050,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.5722468318335578</v>
+        <v>-0.04566870229558823</v>
       </c>
       <c r="F20" t="n">
-        <v>1.148101330538531e-05</v>
+        <v>0.7503177093736187</v>
       </c>
       <c r="G20" t="n">
         <v>51</v>
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.5756740608613117</v>
+        <v>-0.04920082006147287</v>
       </c>
       <c r="F21" t="n">
-        <v>9.890608242591781e-06</v>
+        <v>0.7317029119215145</v>
       </c>
       <c r="G21" t="n">
         <v>51</v>
@@ -1112,10 +1112,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.5409021194250867</v>
+        <v>0.02423012556827816</v>
       </c>
       <c r="F22" t="n">
-        <v>4.168942456992943e-05</v>
+        <v>0.8659755117495943</v>
       </c>
       <c r="G22" t="n">
         <v>51</v>
@@ -1143,10 +1143,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.6220746582908847</v>
+        <v>-0.1152468534219697</v>
       </c>
       <c r="F23" t="n">
-        <v>1.099913679871246e-06</v>
+        <v>0.4206397579822282</v>
       </c>
       <c r="G23" t="n">
         <v>51</v>
@@ -1174,10 +1174,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.3005731608701263</v>
+        <v>-0.5127412039022656</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03210212331060812</v>
+        <v>0.000119603417211172</v>
       </c>
       <c r="G24" t="n">
         <v>51</v>
@@ -1205,10 +1205,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.6517805039955367</v>
+        <v>-0.3660139961127579</v>
       </c>
       <c r="F25" t="n">
-        <v>2.212498598120803e-07</v>
+        <v>0.008256137366752066</v>
       </c>
       <c r="G25" t="n">
         <v>51</v>
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-0.6789680296168457</v>
+        <v>-0.2474015594171133</v>
       </c>
       <c r="F26" t="n">
-        <v>4.337985935231275e-08</v>
+        <v>0.08006264662140726</v>
       </c>
       <c r="G26" t="n">
         <v>51</v>
@@ -1267,10 +1267,10 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.204922972306997</v>
+        <v>-0.05262660871801841</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1491553262357367</v>
+        <v>0.7137933898240064</v>
       </c>
       <c r="G27" t="n">
         <v>51</v>
@@ -1298,10 +1298,10 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.5722468318335578</v>
+        <v>-0.04566870229558823</v>
       </c>
       <c r="F28" t="n">
-        <v>1.148101330538531e-05</v>
+        <v>0.7503177093736187</v>
       </c>
       <c r="G28" t="n">
         <v>51</v>
@@ -1329,10 +1329,10 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.9999055859049282</v>
+        <v>0.9945749897141191</v>
       </c>
       <c r="F29" t="n">
-        <v>6.573562987634554e-93</v>
+        <v>7.871249100986291e-50</v>
       </c>
       <c r="G29" t="n">
         <v>51</v>
@@ -1360,10 +1360,10 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.9875485357194762</v>
+        <v>0.9779047556459204</v>
       </c>
       <c r="F30" t="n">
-        <v>5.029644234549914e-41</v>
+        <v>5.705503770266007e-35</v>
       </c>
       <c r="G30" t="n">
         <v>51</v>
@@ -1391,10 +1391,10 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.9849431270439698</v>
+        <v>0.9764635420190977</v>
       </c>
       <c r="F31" t="n">
-        <v>5.131959049459202e-39</v>
+        <v>2.639299803995532e-34</v>
       </c>
       <c r="G31" t="n">
         <v>51</v>
@@ -1422,10 +1422,10 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.1001200002015811</v>
+        <v>0.5353943896105426</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4845310411148213</v>
+        <v>5.161357194476478e-05</v>
       </c>
       <c r="G32" t="n">
         <v>51</v>
@@ -1453,10 +1453,10 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.9507389525662848</v>
+        <v>0.8788763294378953</v>
       </c>
       <c r="F33" t="n">
-        <v>1.418674655937905e-26</v>
+        <v>2.279503563550515e-17</v>
       </c>
       <c r="G33" t="n">
         <v>51</v>
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-0.6795671513030415</v>
+        <v>-0.2522949614394037</v>
       </c>
       <c r="F34" t="n">
-        <v>4.176908950350929e-08</v>
+        <v>0.07408366288532298</v>
       </c>
       <c r="G34" t="n">
         <v>51</v>
@@ -1515,10 +1515,10 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.2088447899254102</v>
+        <v>-0.0563042135763642</v>
       </c>
       <c r="F35" t="n">
-        <v>0.14135923559083</v>
+        <v>0.69473628708218</v>
       </c>
       <c r="G35" t="n">
         <v>51</v>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.5756740608613117</v>
+        <v>-0.04920082006147287</v>
       </c>
       <c r="F36" t="n">
-        <v>9.890608242591781e-06</v>
+        <v>0.7317029119215145</v>
       </c>
       <c r="G36" t="n">
         <v>51</v>
@@ -1577,10 +1577,10 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.9999055859049282</v>
+        <v>0.9945749897141191</v>
       </c>
       <c r="F37" t="n">
-        <v>6.573562987634554e-93</v>
+        <v>7.871249100986291e-50</v>
       </c>
       <c r="G37" t="n">
         <v>51</v>
@@ -1608,10 +1608,10 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.9874516607688184</v>
+        <v>0.9844671873208248</v>
       </c>
       <c r="F38" t="n">
-        <v>6.074663414413537e-41</v>
+        <v>1.094103415271772e-38</v>
       </c>
       <c r="G38" t="n">
         <v>51</v>
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.9854544848882557</v>
+        <v>0.9620228980265322</v>
       </c>
       <c r="F39" t="n">
-        <v>2.213953250271827e-39</v>
+        <v>2.756083088377342e-29</v>
       </c>
       <c r="G39" t="n">
         <v>51</v>
@@ -1670,10 +1670,10 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.1021864841588652</v>
+        <v>0.5091219029828017</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4755135054689522</v>
+        <v>0.0001360513357634377</v>
       </c>
       <c r="G40" t="n">
         <v>51</v>
@@ -1701,10 +1701,10 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.9513889656512159</v>
+        <v>0.8595802606558595</v>
       </c>
       <c r="F41" t="n">
-        <v>1.032306116254786e-26</v>
+        <v>6.761366893337555e-16</v>
       </c>
       <c r="G41" t="n">
         <v>51</v>
@@ -1732,10 +1732,10 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-0.6516859341044893</v>
+        <v>-0.2332374274622957</v>
       </c>
       <c r="F42" t="n">
-        <v>2.224441138645696e-07</v>
+        <v>0.0995250977777643</v>
       </c>
       <c r="G42" t="n">
         <v>51</v>
@@ -1763,10 +1763,10 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.185998355884277</v>
+        <v>0.01787188212109037</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1912802430419658</v>
+        <v>0.9009379897187754</v>
       </c>
       <c r="G43" t="n">
         <v>51</v>
@@ -1794,10 +1794,10 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.5409021194250867</v>
+        <v>0.02423012556827816</v>
       </c>
       <c r="F44" t="n">
-        <v>4.168942456992943e-05</v>
+        <v>0.8659755117495943</v>
       </c>
       <c r="G44" t="n">
         <v>51</v>
@@ -1825,10 +1825,10 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.9875485357194762</v>
+        <v>0.9779047556459204</v>
       </c>
       <c r="F45" t="n">
-        <v>5.029644234549914e-41</v>
+        <v>5.705503770266007e-35</v>
       </c>
       <c r="G45" t="n">
         <v>51</v>
@@ -1856,10 +1856,10 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.9874516607688184</v>
+        <v>0.9844671873208248</v>
       </c>
       <c r="F46" t="n">
-        <v>6.074663414413537e-41</v>
+        <v>1.094103415271772e-38</v>
       </c>
       <c r="G46" t="n">
         <v>51</v>
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.9658556938972314</v>
+        <v>0.9317877728991334</v>
       </c>
       <c r="F47" t="n">
-        <v>2.125282478077384e-30</v>
+        <v>3.308691361693528e-23</v>
       </c>
       <c r="G47" t="n">
         <v>51</v>
@@ -1918,10 +1918,10 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.09341348175543229</v>
+        <v>0.4503017658933762</v>
       </c>
       <c r="F48" t="n">
-        <v>0.5144041854843556</v>
+        <v>0.000914315430552304</v>
       </c>
       <c r="G48" t="n">
         <v>51</v>
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.923895054568033</v>
+        <v>0.8103431968049492</v>
       </c>
       <c r="F49" t="n">
-        <v>4.41178042336821e-22</v>
+        <v>5.847603356762698e-13</v>
       </c>
       <c r="G49" t="n">
         <v>51</v>
@@ -1980,10 +1980,10 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-0.7321474938933984</v>
+        <v>-0.2492642082230329</v>
       </c>
       <c r="F50" t="n">
-        <v>1.027328553397703e-09</v>
+        <v>0.07774351866415054</v>
       </c>
       <c r="G50" t="n">
         <v>51</v>
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.2273833707276837</v>
+        <v>-0.1224642912675598</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1085634355204408</v>
+        <v>0.3919328728522704</v>
       </c>
       <c r="G51" t="n">
         <v>51</v>
@@ -2042,10 +2042,10 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.6220746582908847</v>
+        <v>-0.1152468534219697</v>
       </c>
       <c r="F52" t="n">
-        <v>1.099913679871246e-06</v>
+        <v>0.4206397579822282</v>
       </c>
       <c r="G52" t="n">
         <v>51</v>
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.9849431270439698</v>
+        <v>0.9764635420190977</v>
       </c>
       <c r="F53" t="n">
-        <v>5.131959049459202e-39</v>
+        <v>2.639299803995532e-34</v>
       </c>
       <c r="G53" t="n">
         <v>51</v>
@@ -2104,10 +2104,10 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.9854544848882557</v>
+        <v>0.9620228980265322</v>
       </c>
       <c r="F54" t="n">
-        <v>2.213953250271827e-39</v>
+        <v>2.756083088377342e-29</v>
       </c>
       <c r="G54" t="n">
         <v>51</v>
@@ -2135,10 +2135,10 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.9658556938972314</v>
+        <v>0.9317877728991334</v>
       </c>
       <c r="F55" t="n">
-        <v>2.125282478077384e-30</v>
+        <v>3.308691361693528e-23</v>
       </c>
       <c r="G55" t="n">
         <v>51</v>
@@ -2166,10 +2166,10 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.2109247344261388</v>
+        <v>0.6627742725376145</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1373497579731382</v>
+        <v>1.168016418565864e-07</v>
       </c>
       <c r="G56" t="n">
         <v>51</v>
@@ -2197,10 +2197,10 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.9877132564824402</v>
+        <v>0.9397908790318428</v>
       </c>
       <c r="F57" t="n">
-        <v>3.636222752764826e-41</v>
+        <v>1.706857880787192e-24</v>
       </c>
       <c r="G57" t="n">
         <v>51</v>
@@ -2228,10 +2228,10 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>-0.2404616073068048</v>
+        <v>-0.1391680424749189</v>
       </c>
       <c r="F58" t="n">
-        <v>0.08918617369232248</v>
+        <v>0.3300714493406343</v>
       </c>
       <c r="G58" t="n">
         <v>51</v>
@@ -2259,10 +2259,10 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.1979128098737249</v>
+        <v>-0.5181123973025762</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1638754392129724</v>
+        <v>9.85209741446905e-05</v>
       </c>
       <c r="G59" t="n">
         <v>51</v>
@@ -2290,10 +2290,10 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.3005731608701263</v>
+        <v>-0.5127412039022656</v>
       </c>
       <c r="F60" t="n">
-        <v>0.03210212331060812</v>
+        <v>0.000119603417211172</v>
       </c>
       <c r="G60" t="n">
         <v>51</v>
@@ -2321,10 +2321,10 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.1001200002015811</v>
+        <v>0.5353943896105426</v>
       </c>
       <c r="F61" t="n">
-        <v>0.4845310411148213</v>
+        <v>5.161357194476478e-05</v>
       </c>
       <c r="G61" t="n">
         <v>51</v>
@@ -2352,10 +2352,10 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.1021864841588652</v>
+        <v>0.5091219029828017</v>
       </c>
       <c r="F62" t="n">
-        <v>0.4755135054689522</v>
+        <v>0.0001360513357634377</v>
       </c>
       <c r="G62" t="n">
         <v>51</v>
@@ -2383,10 +2383,10 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.09341348175543229</v>
+        <v>0.4503017658933762</v>
       </c>
       <c r="F63" t="n">
-        <v>0.5144041854843556</v>
+        <v>0.000914315430552304</v>
       </c>
       <c r="G63" t="n">
         <v>51</v>
@@ -2414,10 +2414,10 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.2109247344261388</v>
+        <v>0.6627742725376145</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1373497579731382</v>
+        <v>1.168016418565864e-07</v>
       </c>
       <c r="G64" t="n">
         <v>51</v>
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.3190776231407726</v>
+        <v>0.8044420144658196</v>
       </c>
       <c r="F65" t="n">
-        <v>0.02247791358707562</v>
+        <v>1.151474097755767e-12</v>
       </c>
       <c r="G65" t="n">
         <v>51</v>
@@ -2476,10 +2476,10 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-0.748347972553762</v>
+        <v>-0.1953488471421629</v>
       </c>
       <c r="F66" t="n">
-        <v>2.741930823105162e-10</v>
+        <v>0.1695158352023677</v>
       </c>
       <c r="G66" t="n">
         <v>51</v>
@@ -2507,10 +2507,10 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.2528218275750855</v>
+        <v>-0.3724951844659068</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07346158944076987</v>
+        <v>0.007106185392101835</v>
       </c>
       <c r="G67" t="n">
         <v>51</v>
@@ -2538,10 +2538,10 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.6517805039955367</v>
+        <v>-0.3660139961127579</v>
       </c>
       <c r="F68" t="n">
-        <v>2.212498598120803e-07</v>
+        <v>0.008256137366752066</v>
       </c>
       <c r="G68" t="n">
         <v>51</v>
@@ -2569,10 +2569,10 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.9507389525662848</v>
+        <v>0.8788763294378953</v>
       </c>
       <c r="F69" t="n">
-        <v>1.418674655937905e-26</v>
+        <v>2.279503563550515e-17</v>
       </c>
       <c r="G69" t="n">
         <v>51</v>
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.9513889656512159</v>
+        <v>0.8595802606558595</v>
       </c>
       <c r="F70" t="n">
-        <v>1.032306116254786e-26</v>
+        <v>6.761366893337555e-16</v>
       </c>
       <c r="G70" t="n">
         <v>51</v>
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.923895054568033</v>
+        <v>0.8103431968049492</v>
       </c>
       <c r="F71" t="n">
-        <v>4.41178042336821e-22</v>
+        <v>5.847603356762698e-13</v>
       </c>
       <c r="G71" t="n">
         <v>51</v>
@@ -2662,10 +2662,10 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.9877132564824402</v>
+        <v>0.9397908790318428</v>
       </c>
       <c r="F72" t="n">
-        <v>3.636222752764826e-41</v>
+        <v>1.706857880787192e-24</v>
       </c>
       <c r="G72" t="n">
         <v>51</v>
@@ -2693,10 +2693,10 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.3190776231407726</v>
+        <v>0.8044420144658196</v>
       </c>
       <c r="F73" t="n">
-        <v>0.02247791358707562</v>
+        <v>1.151474097755767e-12</v>
       </c>
       <c r="G73" t="n">
         <v>51</v>
@@ -2724,10 +2724,10 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-0.1217866726253593</v>
+        <v>0.0659868771261356</v>
       </c>
       <c r="F74" t="n">
-        <v>0.3945779818791871</v>
+        <v>0.6454732010059214</v>
       </c>
       <c r="G74" t="n">
         <v>51</v>
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>-0.7012132087993775</v>
+        <v>0.03113047722822172</v>
       </c>
       <c r="F75" t="n">
-        <v>1.000708870771459e-08</v>
+        <v>0.8283197186070114</v>
       </c>
       <c r="G75" t="n">
         <v>51</v>
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>-0.2724309924260577</v>
+        <v>-0.03719691938605987</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0531044137765197</v>
+        <v>0.795524694156471</v>
       </c>
       <c r="G76" t="n">
         <v>51</v>
@@ -2817,10 +2817,10 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-0.2715615192660667</v>
+        <v>-0.01896714090663718</v>
       </c>
       <c r="F77" t="n">
-        <v>0.05389807913911964</v>
+        <v>0.8949002418723617</v>
       </c>
       <c r="G77" t="n">
         <v>51</v>
@@ -2848,10 +2848,10 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>-0.2553679455393868</v>
+        <v>0.004555461940124923</v>
       </c>
       <c r="F78" t="n">
-        <v>0.07051349111147563</v>
+        <v>0.9746904574780348</v>
       </c>
       <c r="G78" t="n">
         <v>51</v>
@@ -2879,10 +2879,10 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>-0.2601164193681121</v>
+        <v>-0.04054356492896476</v>
       </c>
       <c r="F79" t="n">
-        <v>0.06526708010886091</v>
+        <v>0.7775777070245389</v>
       </c>
       <c r="G79" t="n">
         <v>51</v>
@@ -2910,10 +2910,10 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.01812307842741676</v>
+        <v>-0.04188500914509476</v>
       </c>
       <c r="F80" t="n">
-        <v>0.8995527359662812</v>
+        <v>0.7704155642544326</v>
       </c>
       <c r="G80" t="n">
         <v>51</v>
@@ -2941,10 +2941,10 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>-0.2629840688563241</v>
+        <v>-0.05915144455351822</v>
       </c>
       <c r="F81" t="n">
-        <v>0.06225292803906213</v>
+        <v>0.6801087489043395</v>
       </c>
       <c r="G81" t="n">
         <v>51</v>
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>-0.1217866726253593</v>
+        <v>0.0659868771261356</v>
       </c>
       <c r="F82" t="n">
-        <v>0.3945779818791871</v>
+        <v>0.6454732010059214</v>
       </c>
       <c r="G82" t="n">
         <v>51</v>
@@ -3003,10 +3003,10 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.793043060951175</v>
+        <v>0.9993910794545666</v>
       </c>
       <c r="F83" t="n">
-        <v>4.003773761615906e-12</v>
+        <v>4.452570410579304e-73</v>
       </c>
       <c r="G83" t="n">
         <v>51</v>
@@ -3034,10 +3034,10 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.3504681137554551</v>
+        <v>-0.6565348766628116</v>
       </c>
       <c r="F84" t="n">
-        <v>0.01169139154708462</v>
+        <v>1.68380300765625e-07</v>
       </c>
       <c r="G84" t="n">
         <v>51</v>
@@ -3065,10 +3065,10 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.3266156719815255</v>
+        <v>-0.6435068430079243</v>
       </c>
       <c r="F85" t="n">
-        <v>0.01932342882311344</v>
+        <v>3.518789252593483e-07</v>
       </c>
       <c r="G85" t="n">
         <v>51</v>
@@ -3096,10 +3096,10 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.3571460503927368</v>
+        <v>-0.6489292381216981</v>
       </c>
       <c r="F86" t="n">
-        <v>0.01008889744847592</v>
+        <v>2.600252915669624e-07</v>
       </c>
       <c r="G86" t="n">
         <v>51</v>
@@ -3127,10 +3127,10 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.3737650768982108</v>
+        <v>-0.7032621532716562</v>
       </c>
       <c r="F87" t="n">
-        <v>0.006897979465241465</v>
+        <v>8.684065358501685e-09</v>
       </c>
       <c r="G87" t="n">
         <v>51</v>
@@ -3158,10 +3158,10 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>-0.09475236665540861</v>
+        <v>-0.8724857913891301</v>
       </c>
       <c r="F88" t="n">
-        <v>0.50836714755107</v>
+        <v>7.44173823744608e-17</v>
       </c>
       <c r="G88" t="n">
         <v>51</v>
@@ -3189,10 +3189,10 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.2924334415336943</v>
+        <v>-0.8570753428587838</v>
       </c>
       <c r="F89" t="n">
-        <v>0.03730779480797133</v>
+        <v>1.011648512903205e-15</v>
       </c>
       <c r="G89" t="n">
         <v>51</v>
@@ -3220,10 +3220,10 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>-0.7012132087993775</v>
+        <v>0.03113047722822172</v>
       </c>
       <c r="F90" t="n">
-        <v>1.000708870771459e-08</v>
+        <v>0.8283197186070114</v>
       </c>
       <c r="G90" t="n">
         <v>51</v>
@@ -3251,10 +3251,10 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.793043060951175</v>
+        <v>0.9993910794545666</v>
       </c>
       <c r="F91" t="n">
-        <v>4.003773761615906e-12</v>
+        <v>4.452570410579304e-73</v>
       </c>
       <c r="G91" t="n">
         <v>51</v>
@@ -3282,10 +3282,10 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.418940869258076</v>
+        <v>-0.6563493078509529</v>
       </c>
       <c r="F92" t="n">
-        <v>0.002215107851313916</v>
+        <v>1.701998760321847e-07</v>
       </c>
       <c r="G92" t="n">
         <v>51</v>
@@ -3313,10 +3313,10 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.401274072386024</v>
+        <v>-0.6439366132227787</v>
       </c>
       <c r="F93" t="n">
-        <v>0.003518721063112167</v>
+        <v>3.43616996738539e-07</v>
       </c>
       <c r="G93" t="n">
         <v>51</v>
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.4132654481243777</v>
+        <v>-0.6501907681904161</v>
       </c>
       <c r="F94" t="n">
-        <v>0.002577124427819514</v>
+        <v>2.421453295357088e-07</v>
       </c>
       <c r="G94" t="n">
         <v>51</v>
@@ -3375,10 +3375,10 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.4281171688496348</v>
+        <v>-0.7030389255117107</v>
       </c>
       <c r="F95" t="n">
-        <v>0.001724607435591462</v>
+        <v>8.819778791367776e-09</v>
       </c>
       <c r="G95" t="n">
         <v>51</v>
@@ -3406,10 +3406,10 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>-0.07918322670940946</v>
+        <v>-0.8725030885366102</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5807216868112641</v>
+        <v>7.418584872569995e-17</v>
       </c>
       <c r="G96" t="n">
         <v>51</v>
@@ -3437,10 +3437,10 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.3714567565136144</v>
+        <v>-0.8564626837147299</v>
       </c>
       <c r="F97" t="n">
-        <v>0.007280482614488072</v>
+        <v>1.115131405684673e-15</v>
       </c>
       <c r="G97" t="n">
         <v>51</v>
@@ -3468,10 +3468,10 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-0.2724309924260577</v>
+        <v>-0.03719691938605987</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0531044137765197</v>
+        <v>0.795524694156471</v>
       </c>
       <c r="G98" t="n">
         <v>51</v>
@@ -3499,10 +3499,10 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.3504681137554551</v>
+        <v>-0.6565348766628116</v>
       </c>
       <c r="F99" t="n">
-        <v>0.01169139154708462</v>
+        <v>1.68380300765625e-07</v>
       </c>
       <c r="G99" t="n">
         <v>51</v>
@@ -3530,10 +3530,10 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.418940869258076</v>
+        <v>-0.6563493078509529</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002215107851313916</v>
+        <v>1.701998760321847e-07</v>
       </c>
       <c r="G100" t="n">
         <v>51</v>
@@ -3561,10 +3561,10 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.9993243755829033</v>
+        <v>0.9980684006116063</v>
       </c>
       <c r="F101" t="n">
-        <v>5.679747478463062e-72</v>
+        <v>8.420825290696966e-61</v>
       </c>
       <c r="G101" t="n">
         <v>51</v>
@@ -3592,10 +3592,10 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.9900346363098762</v>
+        <v>0.9876769655859106</v>
       </c>
       <c r="F102" t="n">
-        <v>2.207860777367048e-43</v>
+        <v>3.90708459520082e-41</v>
       </c>
       <c r="G102" t="n">
         <v>51</v>
@@ -3623,10 +3623,10 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0.9925536220230464</v>
+        <v>0.9887321799229045</v>
       </c>
       <c r="F103" t="n">
-        <v>1.802785555060336e-46</v>
+        <v>4.411128883456731e-42</v>
       </c>
       <c r="G103" t="n">
         <v>51</v>
@@ -3654,10 +3654,10 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-0.2800696377788567</v>
+        <v>0.7624977272673595</v>
       </c>
       <c r="F104" t="n">
-        <v>0.04653079263960054</v>
+        <v>7.951726711540248e-11</v>
       </c>
       <c r="G104" t="n">
         <v>51</v>
@@ -3685,10 +3685,10 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.9542200999847965</v>
+        <v>0.9150177804304197</v>
       </c>
       <c r="F105" t="n">
-        <v>2.452046399320853e-27</v>
+        <v>5.933733088532449e-21</v>
       </c>
       <c r="G105" t="n">
         <v>51</v>
@@ -3716,10 +3716,10 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>-0.2715615192660667</v>
+        <v>-0.01896714090663718</v>
       </c>
       <c r="F106" t="n">
-        <v>0.05389807913911964</v>
+        <v>0.8949002418723617</v>
       </c>
       <c r="G106" t="n">
         <v>51</v>
@@ -3747,10 +3747,10 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.3266156719815255</v>
+        <v>-0.6435068430079243</v>
       </c>
       <c r="F107" t="n">
-        <v>0.01932342882311344</v>
+        <v>3.518789252593483e-07</v>
       </c>
       <c r="G107" t="n">
         <v>51</v>
@@ -3778,10 +3778,10 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.401274072386024</v>
+        <v>-0.6439366132227787</v>
       </c>
       <c r="F108" t="n">
-        <v>0.003518721063112167</v>
+        <v>3.43616996738539e-07</v>
       </c>
       <c r="G108" t="n">
         <v>51</v>
@@ -3809,10 +3809,10 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.9993243755829033</v>
+        <v>0.9980684006116063</v>
       </c>
       <c r="F109" t="n">
-        <v>5.679747478463062e-72</v>
+        <v>8.420825290696966e-61</v>
       </c>
       <c r="G109" t="n">
         <v>51</v>
@@ -3840,10 +3840,10 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.9895411099570841</v>
+        <v>0.990911832340402</v>
       </c>
       <c r="F110" t="n">
-        <v>7.175552917355948e-43</v>
+        <v>2.332809967124919e-44</v>
       </c>
       <c r="G110" t="n">
         <v>51</v>
@@ -3871,10 +3871,10 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.9907976444018104</v>
+        <v>0.9824240980677319</v>
       </c>
       <c r="F111" t="n">
-        <v>3.16353625373605e-44</v>
+        <v>2.207080173080712e-37</v>
       </c>
       <c r="G111" t="n">
         <v>51</v>
@@ -3902,10 +3902,10 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>-0.2801015470474736</v>
+        <v>0.741356552660553</v>
       </c>
       <c r="F112" t="n">
-        <v>0.04650479365570191</v>
+        <v>4.906884943055619e-10</v>
       </c>
       <c r="G112" t="n">
         <v>51</v>
@@ -3933,10 +3933,10 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.9544165119569794</v>
+        <v>0.9041922512094065</v>
       </c>
       <c r="F113" t="n">
-        <v>2.211892296019298e-27</v>
+        <v>9.856321485673104e-20</v>
       </c>
       <c r="G113" t="n">
         <v>51</v>
@@ -3964,10 +3964,10 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>-0.2553679455393868</v>
+        <v>0.004555461940124923</v>
       </c>
       <c r="F114" t="n">
-        <v>0.07051349111147563</v>
+        <v>0.9746904574780348</v>
       </c>
       <c r="G114" t="n">
         <v>51</v>
@@ -3995,10 +3995,10 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.3571460503927368</v>
+        <v>-0.6489292381216981</v>
       </c>
       <c r="F115" t="n">
-        <v>0.01008889744847592</v>
+        <v>2.600252915669624e-07</v>
       </c>
       <c r="G115" t="n">
         <v>51</v>
@@ -4026,10 +4026,10 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.4132654481243777</v>
+        <v>-0.6501907681904161</v>
       </c>
       <c r="F116" t="n">
-        <v>0.002577124427819514</v>
+        <v>2.421453295357088e-07</v>
       </c>
       <c r="G116" t="n">
         <v>51</v>
@@ -4057,10 +4057,10 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.9900346363098762</v>
+        <v>0.9876769655859106</v>
       </c>
       <c r="F117" t="n">
-        <v>2.207860777367048e-43</v>
+        <v>3.90708459520082e-41</v>
       </c>
       <c r="G117" t="n">
         <v>51</v>
@@ -4088,10 +4088,10 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.9895411099570841</v>
+        <v>0.990911832340402</v>
       </c>
       <c r="F118" t="n">
-        <v>7.175552917355948e-43</v>
+        <v>2.332809967124919e-44</v>
       </c>
       <c r="G118" t="n">
         <v>51</v>
@@ -4119,10 +4119,10 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.9839056240372334</v>
+        <v>0.9707337300245886</v>
       </c>
       <c r="F119" t="n">
-        <v>2.595217145298339e-38</v>
+        <v>5.145078350713633e-32</v>
       </c>
       <c r="G119" t="n">
         <v>51</v>
@@ -4150,10 +4150,10 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>-0.3006605548989093</v>
+        <v>0.7335354206492539</v>
       </c>
       <c r="F120" t="n">
-        <v>0.03204968835418161</v>
+        <v>9.208466640378315e-10</v>
       </c>
       <c r="G120" t="n">
         <v>51</v>
@@ -4181,10 +4181,10 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.9403483483855466</v>
+        <v>0.8964662625874494</v>
       </c>
       <c r="F121" t="n">
-        <v>1.367833017366052e-24</v>
+        <v>6.014465143877761e-19</v>
       </c>
       <c r="G121" t="n">
         <v>51</v>
@@ -4212,10 +4212,10 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>-0.2601164193681121</v>
+        <v>-0.04054356492896476</v>
       </c>
       <c r="F122" t="n">
-        <v>0.06526708010886091</v>
+        <v>0.7775777070245389</v>
       </c>
       <c r="G122" t="n">
         <v>51</v>
@@ -4243,10 +4243,10 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.3737650768982108</v>
+        <v>-0.7032621532716562</v>
       </c>
       <c r="F123" t="n">
-        <v>0.006897979465241465</v>
+        <v>8.684065358501685e-09</v>
       </c>
       <c r="G123" t="n">
         <v>51</v>
@@ -4274,10 +4274,10 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.4281171688496348</v>
+        <v>-0.7030389255117107</v>
       </c>
       <c r="F124" t="n">
-        <v>0.001724607435591462</v>
+        <v>8.819778791367776e-09</v>
       </c>
       <c r="G124" t="n">
         <v>51</v>
@@ -4305,10 +4305,10 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.9925536220230464</v>
+        <v>0.9887321799229045</v>
       </c>
       <c r="F125" t="n">
-        <v>1.802785555060336e-46</v>
+        <v>4.411128883456731e-42</v>
       </c>
       <c r="G125" t="n">
         <v>51</v>
@@ -4336,10 +4336,10 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.9907976444018104</v>
+        <v>0.9824240980677319</v>
       </c>
       <c r="F126" t="n">
-        <v>3.16353625373605e-44</v>
+        <v>2.207080173080712e-37</v>
       </c>
       <c r="G126" t="n">
         <v>51</v>
@@ -4367,10 +4367,10 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.9839056240372334</v>
+        <v>0.9707337300245886</v>
       </c>
       <c r="F127" t="n">
-        <v>2.595217145298339e-38</v>
+        <v>5.145078350713633e-32</v>
       </c>
       <c r="G127" t="n">
         <v>51</v>
@@ -4398,10 +4398,10 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>-0.2223515628836307</v>
+        <v>0.8214955744390212</v>
       </c>
       <c r="F128" t="n">
-        <v>0.1168239521638304</v>
+        <v>1.520184403683132e-13</v>
       </c>
       <c r="G128" t="n">
         <v>51</v>
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.9744311647516738</v>
+        <v>0.9480553956624329</v>
       </c>
       <c r="F129" t="n">
-        <v>1.961872005963873e-33</v>
+        <v>5.044425541651142e-26</v>
       </c>
       <c r="G129" t="n">
         <v>51</v>
@@ -4460,10 +4460,10 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.01812307842741676</v>
+        <v>-0.04188500914509476</v>
       </c>
       <c r="F130" t="n">
-        <v>0.8995527359662812</v>
+        <v>0.7704155642544326</v>
       </c>
       <c r="G130" t="n">
         <v>51</v>
@@ -4491,10 +4491,10 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>-0.09475236665540861</v>
+        <v>-0.8724857913891301</v>
       </c>
       <c r="F131" t="n">
-        <v>0.50836714755107</v>
+        <v>7.44173823744608e-17</v>
       </c>
       <c r="G131" t="n">
         <v>51</v>
@@ -4522,10 +4522,10 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>-0.07918322670940946</v>
+        <v>-0.8725030885366102</v>
       </c>
       <c r="F132" t="n">
-        <v>0.5807216868112641</v>
+        <v>7.418584872569995e-17</v>
       </c>
       <c r="G132" t="n">
         <v>51</v>
@@ -4553,10 +4553,10 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>-0.2800696377788567</v>
+        <v>0.7624977272673595</v>
       </c>
       <c r="F133" t="n">
-        <v>0.04653079263960054</v>
+        <v>7.951726711540248e-11</v>
       </c>
       <c r="G133" t="n">
         <v>51</v>
@@ -4584,10 +4584,10 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>-0.2801015470474736</v>
+        <v>0.741356552660553</v>
       </c>
       <c r="F134" t="n">
-        <v>0.04650479365570191</v>
+        <v>4.906884943055619e-10</v>
       </c>
       <c r="G134" t="n">
         <v>51</v>
@@ -4615,10 +4615,10 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>-0.3006605548989093</v>
+        <v>0.7335354206492539</v>
       </c>
       <c r="F135" t="n">
-        <v>0.03204968835418161</v>
+        <v>9.208466640378315e-10</v>
       </c>
       <c r="G135" t="n">
         <v>51</v>
@@ -4646,10 +4646,10 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>-0.2223515628836307</v>
+        <v>0.8214955744390212</v>
       </c>
       <c r="F136" t="n">
-        <v>0.1168239521638304</v>
+        <v>1.520184403683132e-13</v>
       </c>
       <c r="G136" t="n">
         <v>51</v>
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-0.0531431601636611</v>
+        <v>0.9165067308287289</v>
       </c>
       <c r="F137" t="n">
-        <v>0.7111058690585507</v>
+        <v>3.916040887754561e-21</v>
       </c>
       <c r="G137" t="n">
         <v>51</v>
@@ -4708,10 +4708,10 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>-0.2629840688563241</v>
+        <v>-0.05915144455351822</v>
       </c>
       <c r="F138" t="n">
-        <v>0.06225292803906213</v>
+        <v>0.6801087489043395</v>
       </c>
       <c r="G138" t="n">
         <v>51</v>
@@ -4739,10 +4739,10 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.2924334415336943</v>
+        <v>-0.8570753428587838</v>
       </c>
       <c r="F139" t="n">
-        <v>0.03730779480797133</v>
+        <v>1.011648512903205e-15</v>
       </c>
       <c r="G139" t="n">
         <v>51</v>
@@ -4770,10 +4770,10 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.3714567565136144</v>
+        <v>-0.8564626837147299</v>
       </c>
       <c r="F140" t="n">
-        <v>0.007280482614488072</v>
+        <v>1.115131405684673e-15</v>
       </c>
       <c r="G140" t="n">
         <v>51</v>
@@ -4801,10 +4801,10 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.9542200999847965</v>
+        <v>0.9150177804304197</v>
       </c>
       <c r="F141" t="n">
-        <v>2.452046399320853e-27</v>
+        <v>5.933733088532449e-21</v>
       </c>
       <c r="G141" t="n">
         <v>51</v>
@@ -4832,10 +4832,10 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.9544165119569794</v>
+        <v>0.9041922512094065</v>
       </c>
       <c r="F142" t="n">
-        <v>2.211892296019298e-27</v>
+        <v>9.856321485673104e-20</v>
       </c>
       <c r="G142" t="n">
         <v>51</v>
@@ -4863,10 +4863,10 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.9403483483855466</v>
+        <v>0.8964662625874494</v>
       </c>
       <c r="F143" t="n">
-        <v>1.367833017366052e-24</v>
+        <v>6.014465143877761e-19</v>
       </c>
       <c r="G143" t="n">
         <v>51</v>
@@ -4894,10 +4894,10 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0.9744311647516738</v>
+        <v>0.9480553956624329</v>
       </c>
       <c r="F144" t="n">
-        <v>1.961872005963873e-33</v>
+        <v>5.044425541651142e-26</v>
       </c>
       <c r="G144" t="n">
         <v>51</v>
@@ -4925,10 +4925,10 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>-0.0531431601636611</v>
+        <v>0.9165067308287289</v>
       </c>
       <c r="F145" t="n">
-        <v>0.7111058690585507</v>
+        <v>3.916040887754561e-21</v>
       </c>
       <c r="G145" t="n">
         <v>51</v>
@@ -4956,10 +4956,10 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0.1055702067964896</v>
+        <v>0.05364524127641142</v>
       </c>
       <c r="F146" t="n">
-        <v>0.4609426656552442</v>
+        <v>0.7084969648362229</v>
       </c>
       <c r="G146" t="n">
         <v>51</v>
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>-0.4513788957459659</v>
+        <v>-0.08166682231000705</v>
       </c>
       <c r="F147" t="n">
-        <v>0.0008856021715984593</v>
+        <v>0.5688729672785274</v>
       </c>
       <c r="G147" t="n">
         <v>51</v>
@@ -5018,10 +5018,10 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>-0.3616096600834164</v>
+        <v>-0.1547263993700965</v>
       </c>
       <c r="F148" t="n">
-        <v>0.009126710839288267</v>
+        <v>0.2783120666148347</v>
       </c>
       <c r="G148" t="n">
         <v>51</v>
@@ -5049,10 +5049,10 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>-0.361777099253703</v>
+        <v>-0.1562468694816095</v>
       </c>
       <c r="F149" t="n">
-        <v>0.009092217634474651</v>
+        <v>0.2735583887788002</v>
       </c>
       <c r="G149" t="n">
         <v>51</v>
@@ -5080,10 +5080,10 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>-0.3757859469535615</v>
+        <v>-0.1395108376053745</v>
       </c>
       <c r="F150" t="n">
-        <v>0.006577589385329066</v>
+        <v>0.3288698619023189</v>
       </c>
       <c r="G150" t="n">
         <v>51</v>
@@ -5111,10 +5111,10 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>-0.3411054129994048</v>
+        <v>-0.1348868973982695</v>
       </c>
       <c r="F151" t="n">
-        <v>0.01430356693528829</v>
+        <v>0.3453093988429791</v>
       </c>
       <c r="G151" t="n">
         <v>51</v>
@@ -5142,10 +5142,10 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0.3749516911526615</v>
+        <v>0.004200282393286832</v>
       </c>
       <c r="F152" t="n">
-        <v>0.006708246391399442</v>
+        <v>0.9766632195175838</v>
       </c>
       <c r="G152" t="n">
         <v>51</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>-0.1842540420707467</v>
+        <v>-0.02369648973474241</v>
       </c>
       <c r="F153" t="n">
-        <v>0.1955513466401494</v>
+        <v>0.8689010439557221</v>
       </c>
       <c r="G153" t="n">
         <v>51</v>
@@ -5204,10 +5204,10 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.1055702067964896</v>
+        <v>0.05364524127641142</v>
       </c>
       <c r="F154" t="n">
-        <v>0.4609426656552442</v>
+        <v>0.7084969648362229</v>
       </c>
       <c r="G154" t="n">
         <v>51</v>
@@ -5235,10 +5235,10 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.8396937402043524</v>
+        <v>0.9908435170188187</v>
       </c>
       <c r="F155" t="n">
-        <v>1.363211467230016e-14</v>
+        <v>2.800437429722869e-44</v>
       </c>
       <c r="G155" t="n">
         <v>51</v>
@@ -5266,10 +5266,10 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>-0.1715927693480346</v>
+        <v>-0.2350209864181236</v>
       </c>
       <c r="F156" t="n">
-        <v>0.2285925214558344</v>
+        <v>0.09689032120826795</v>
       </c>
       <c r="G156" t="n">
         <v>51</v>
@@ -5297,10 +5297,10 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>-0.1952240013951184</v>
+        <v>-0.2327418262157598</v>
       </c>
       <c r="F157" t="n">
-        <v>0.1697940364879041</v>
+        <v>0.1002669727578907</v>
       </c>
       <c r="G157" t="n">
         <v>51</v>
@@ -5328,10 +5328,10 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-0.1700864949554302</v>
+        <v>-0.2234487923660162</v>
       </c>
       <c r="F158" t="n">
-        <v>0.2327652688008124</v>
+        <v>0.1149831161143718</v>
       </c>
       <c r="G158" t="n">
         <v>51</v>
@@ -5359,10 +5359,10 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>-0.1129146183694904</v>
+        <v>-0.2913854261873211</v>
       </c>
       <c r="F159" t="n">
-        <v>0.4301654583643641</v>
+        <v>0.03802597595355776</v>
       </c>
       <c r="G159" t="n">
         <v>51</v>
@@ -5390,10 +5390,10 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.2887183153506658</v>
+        <v>-0.5887629809188268</v>
       </c>
       <c r="F160" t="n">
-        <v>0.0399051990538261</v>
+        <v>5.508896737737493e-06</v>
       </c>
       <c r="G160" t="n">
         <v>51</v>
@@ -5421,10 +5421,10 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>-0.02599572761201946</v>
+        <v>-0.542878905943017</v>
       </c>
       <c r="F161" t="n">
-        <v>0.8563089011219343</v>
+        <v>3.857841126254618e-05</v>
       </c>
       <c r="G161" t="n">
         <v>51</v>
@@ -5452,10 +5452,10 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>-0.4513788957459659</v>
+        <v>-0.08166682231000705</v>
       </c>
       <c r="F162" t="n">
-        <v>0.0008856021715984593</v>
+        <v>0.5688729672785274</v>
       </c>
       <c r="G162" t="n">
         <v>51</v>
@@ -5483,10 +5483,10 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.8396937402043524</v>
+        <v>0.9908435170188187</v>
       </c>
       <c r="F163" t="n">
-        <v>1.363211467230016e-14</v>
+        <v>2.800437429722869e-44</v>
       </c>
       <c r="G163" t="n">
         <v>51</v>
@@ -5514,10 +5514,10 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.04350113321678058</v>
+        <v>-0.2136531633537865</v>
       </c>
       <c r="F164" t="n">
-        <v>0.7618120509273909</v>
+        <v>0.1322198443738823</v>
       </c>
       <c r="G164" t="n">
         <v>51</v>
@@ -5545,10 +5545,10 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0.02238716102365478</v>
+        <v>-0.2111727579281212</v>
       </c>
       <c r="F165" t="n">
-        <v>0.876086423443445</v>
+        <v>0.136877376836686</v>
       </c>
       <c r="G165" t="n">
         <v>51</v>
@@ -5576,10 +5576,10 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.05259462414604047</v>
+        <v>-0.2041602881375947</v>
       </c>
       <c r="F166" t="n">
-        <v>0.7139599131632415</v>
+        <v>0.1507076794473348</v>
       </c>
       <c r="G166" t="n">
         <v>51</v>
@@ -5607,10 +5607,10 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.08495817463225766</v>
+        <v>-0.2725928337911814</v>
       </c>
       <c r="F167" t="n">
-        <v>0.5533453620711281</v>
+        <v>0.05295773272448217</v>
       </c>
       <c r="G167" t="n">
         <v>51</v>
@@ -5638,10 +5638,10 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.05431486878098472</v>
+        <v>-0.5882104193905943</v>
       </c>
       <c r="F168" t="n">
-        <v>0.7050226151752882</v>
+        <v>5.649614029522511e-06</v>
       </c>
       <c r="G168" t="n">
         <v>51</v>
@@ -5669,10 +5669,10 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0.07729615667299135</v>
+        <v>-0.5386417451822025</v>
       </c>
       <c r="F169" t="n">
-        <v>0.5897986642494685</v>
+        <v>4.552829433346899e-05</v>
       </c>
       <c r="G169" t="n">
         <v>51</v>
@@ -5700,10 +5700,10 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-0.3616096600834164</v>
+        <v>-0.1547263993700965</v>
       </c>
       <c r="F170" t="n">
-        <v>0.009126710839288267</v>
+        <v>0.2783120666148347</v>
       </c>
       <c r="G170" t="n">
         <v>51</v>
@@ -5731,10 +5731,10 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>-0.1715927693480346</v>
+        <v>-0.2350209864181236</v>
       </c>
       <c r="F171" t="n">
-        <v>0.2285925214558344</v>
+        <v>0.09689032120826795</v>
       </c>
       <c r="G171" t="n">
         <v>51</v>
@@ -5762,10 +5762,10 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0.04350113321678058</v>
+        <v>-0.2136531633537865</v>
       </c>
       <c r="F172" t="n">
-        <v>0.7618120509273909</v>
+        <v>0.1322198443738823</v>
       </c>
       <c r="G172" t="n">
         <v>51</v>
@@ -5793,10 +5793,10 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0.9987178180242671</v>
+        <v>0.9985051646846038</v>
       </c>
       <c r="F173" t="n">
-        <v>3.701177612461613e-65</v>
+        <v>1.585137196688497e-63</v>
       </c>
       <c r="G173" t="n">
         <v>51</v>
@@ -5824,10 +5824,10 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>0.9925669567521379</v>
+        <v>0.9934385360281915</v>
       </c>
       <c r="F174" t="n">
-        <v>1.725593299167004e-46</v>
+        <v>8.206552419745927e-48</v>
       </c>
       <c r="G174" t="n">
         <v>51</v>
@@ -5855,10 +5855,10 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0.9831850306744541</v>
+        <v>0.9868035932494827</v>
       </c>
       <c r="F175" t="n">
-        <v>7.527505027337565e-38</v>
+        <v>2.070747331307117e-40</v>
       </c>
       <c r="G175" t="n">
         <v>51</v>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>-0.7844955494737785</v>
+        <v>0.3888874372681907</v>
       </c>
       <c r="F176" t="n">
-        <v>9.697712285684496e-12</v>
+        <v>0.004797750485171471</v>
       </c>
       <c r="G176" t="n">
         <v>51</v>
@@ -5917,10 +5917,10 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0.7455488601457223</v>
+        <v>0.8181496616942748</v>
       </c>
       <c r="F177" t="n">
-        <v>3.469171578944817e-10</v>
+        <v>2.29933532587793e-13</v>
       </c>
       <c r="G177" t="n">
         <v>51</v>
@@ -5948,10 +5948,10 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>-0.361777099253703</v>
+        <v>-0.1562468694816095</v>
       </c>
       <c r="F178" t="n">
-        <v>0.009092217634474651</v>
+        <v>0.2735583887788002</v>
       </c>
       <c r="G178" t="n">
         <v>51</v>
@@ -5979,10 +5979,10 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>-0.1952240013951184</v>
+        <v>-0.2327418262157598</v>
       </c>
       <c r="F179" t="n">
-        <v>0.1697940364879041</v>
+        <v>0.1002669727578907</v>
       </c>
       <c r="G179" t="n">
         <v>51</v>
@@ -6010,10 +6010,10 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>0.02238716102365478</v>
+        <v>-0.2111727579281212</v>
       </c>
       <c r="F180" t="n">
-        <v>0.876086423443445</v>
+        <v>0.136877376836686</v>
       </c>
       <c r="G180" t="n">
         <v>51</v>
@@ -6041,10 +6041,10 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0.9987178180242671</v>
+        <v>0.9985051646846038</v>
       </c>
       <c r="F181" t="n">
-        <v>3.701177612461613e-65</v>
+        <v>1.585137196688497e-63</v>
       </c>
       <c r="G181" t="n">
         <v>51</v>
@@ -6072,10 +6072,10 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>0.9901041658907063</v>
+        <v>0.9955222534281674</v>
       </c>
       <c r="F182" t="n">
-        <v>1.861297772183258e-43</v>
+        <v>7.225081674437037e-52</v>
       </c>
       <c r="G182" t="n">
         <v>51</v>
@@ -6103,10 +6103,10 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0.9827150097249172</v>
+        <v>0.9838416467598319</v>
       </c>
       <c r="F183" t="n">
-        <v>1.47118819709323e-37</v>
+        <v>2.858051750765409e-38</v>
       </c>
       <c r="G183" t="n">
         <v>51</v>
@@ -6134,10 +6134,10 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-0.7852309855120236</v>
+        <v>0.3822048291592443</v>
       </c>
       <c r="F184" t="n">
-        <v>9.00114772228627e-12</v>
+        <v>0.00564432593449124</v>
       </c>
       <c r="G184" t="n">
         <v>51</v>
@@ -6165,10 +6165,10 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.7486380366488059</v>
+        <v>0.8114734061138876</v>
       </c>
       <c r="F185" t="n">
-        <v>2.675425890522207e-10</v>
+        <v>5.122129157021979e-13</v>
       </c>
       <c r="G185" t="n">
         <v>51</v>
@@ -6196,10 +6196,10 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>-0.3757859469535615</v>
+        <v>-0.1395108376053745</v>
       </c>
       <c r="F186" t="n">
-        <v>0.006577589385329066</v>
+        <v>0.3288698619023189</v>
       </c>
       <c r="G186" t="n">
         <v>51</v>
@@ -6227,10 +6227,10 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>-0.1700864949554302</v>
+        <v>-0.2234487923660162</v>
       </c>
       <c r="F187" t="n">
-        <v>0.2327652688008124</v>
+        <v>0.1149831161143718</v>
       </c>
       <c r="G187" t="n">
         <v>51</v>
@@ -6258,10 +6258,10 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0.05259462414604047</v>
+        <v>-0.2041602881375947</v>
       </c>
       <c r="F188" t="n">
-        <v>0.7139599131632415</v>
+        <v>0.1507076794473348</v>
       </c>
       <c r="G188" t="n">
         <v>51</v>
@@ -6289,10 +6289,10 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>0.9925669567521379</v>
+        <v>0.9934385360281915</v>
       </c>
       <c r="F189" t="n">
-        <v>1.725593299167004e-46</v>
+        <v>8.206552419745927e-48</v>
       </c>
       <c r="G189" t="n">
         <v>51</v>
@@ -6320,10 +6320,10 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>0.9901041658907063</v>
+        <v>0.9955222534281674</v>
       </c>
       <c r="F190" t="n">
-        <v>1.861297772183258e-43</v>
+        <v>7.225081674437037e-52</v>
       </c>
       <c r="G190" t="n">
         <v>51</v>
@@ -6351,10 +6351,10 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>0.9706956985817398</v>
+        <v>0.9734929521395245</v>
       </c>
       <c r="F191" t="n">
-        <v>5.309100192031572e-32</v>
+        <v>4.692991968946205e-33</v>
       </c>
       <c r="G191" t="n">
         <v>51</v>
@@ -6382,10 +6382,10 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>-0.7862046398310026</v>
+        <v>0.360071637617547</v>
       </c>
       <c r="F192" t="n">
-        <v>8.151669387607212e-12</v>
+        <v>0.009448880246014493</v>
       </c>
       <c r="G192" t="n">
         <v>51</v>
@@ -6413,10 +6413,10 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>0.7189057636271921</v>
+        <v>0.7987133937316797</v>
       </c>
       <c r="F193" t="n">
-        <v>2.823994298523539e-09</v>
+        <v>2.175492262854431e-12</v>
       </c>
       <c r="G193" t="n">
         <v>51</v>
@@ -6444,10 +6444,10 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-0.3411054129994048</v>
+        <v>-0.1348868973982695</v>
       </c>
       <c r="F194" t="n">
-        <v>0.01430356693528829</v>
+        <v>0.3453093988429791</v>
       </c>
       <c r="G194" t="n">
         <v>51</v>
@@ -6475,10 +6475,10 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-0.1129146183694904</v>
+        <v>-0.2913854261873211</v>
       </c>
       <c r="F195" t="n">
-        <v>0.4301654583643641</v>
+        <v>0.03802597595355776</v>
       </c>
       <c r="G195" t="n">
         <v>51</v>
@@ -6506,10 +6506,10 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>0.08495817463225766</v>
+        <v>-0.2725928337911814</v>
       </c>
       <c r="F196" t="n">
-        <v>0.5533453620711281</v>
+        <v>0.05295773272448217</v>
       </c>
       <c r="G196" t="n">
         <v>51</v>
@@ -6537,10 +6537,10 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0.9831850306744541</v>
+        <v>0.9868035932494827</v>
       </c>
       <c r="F197" t="n">
-        <v>7.527505027337565e-38</v>
+        <v>2.070747331307117e-40</v>
       </c>
       <c r="G197" t="n">
         <v>51</v>
@@ -6568,10 +6568,10 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>0.9827150097249172</v>
+        <v>0.9838416467598319</v>
       </c>
       <c r="F198" t="n">
-        <v>1.47118819709323e-37</v>
+        <v>2.858051750765409e-38</v>
       </c>
       <c r="G198" t="n">
         <v>51</v>
@@ -6599,10 +6599,10 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>0.9706956985817398</v>
+        <v>0.9734929521395245</v>
       </c>
       <c r="F199" t="n">
-        <v>5.309100192031572e-32</v>
+        <v>4.692991968946205e-33</v>
       </c>
       <c r="G199" t="n">
         <v>51</v>
@@ -6630,10 +6630,10 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-0.7068280934885688</v>
+        <v>0.4956955975107817</v>
       </c>
       <c r="F200" t="n">
-        <v>6.76548400719907e-09</v>
+        <v>0.0002167215265821987</v>
       </c>
       <c r="G200" t="n">
         <v>51</v>
@@ -6661,10 +6661,10 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0.8462444891295893</v>
+        <v>0.8857626724451945</v>
       </c>
       <c r="F201" t="n">
-        <v>5.311939611507085e-15</v>
+        <v>5.898334430762639e-18</v>
       </c>
       <c r="G201" t="n">
         <v>51</v>
@@ -6692,10 +6692,10 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>0.3749516911526615</v>
+        <v>0.004200282393286832</v>
       </c>
       <c r="F202" t="n">
-        <v>0.006708246391399442</v>
+        <v>0.9766632195175838</v>
       </c>
       <c r="G202" t="n">
         <v>51</v>
@@ -6723,10 +6723,10 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.2887183153506658</v>
+        <v>-0.5887629809188268</v>
       </c>
       <c r="F203" t="n">
-        <v>0.0399051990538261</v>
+        <v>5.508896737737493e-06</v>
       </c>
       <c r="G203" t="n">
         <v>51</v>
@@ -6754,10 +6754,10 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>0.05431486878098472</v>
+        <v>-0.5882104193905943</v>
       </c>
       <c r="F204" t="n">
-        <v>0.7050226151752882</v>
+        <v>5.649614029522511e-06</v>
       </c>
       <c r="G204" t="n">
         <v>51</v>
@@ -6785,10 +6785,10 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>-0.7844955494737785</v>
+        <v>0.3888874372681907</v>
       </c>
       <c r="F205" t="n">
-        <v>9.697712285684496e-12</v>
+        <v>0.004797750485171471</v>
       </c>
       <c r="G205" t="n">
         <v>51</v>
@@ -6816,10 +6816,10 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>-0.7852309855120236</v>
+        <v>0.3822048291592443</v>
       </c>
       <c r="F206" t="n">
-        <v>9.00114772228627e-12</v>
+        <v>0.00564432593449124</v>
       </c>
       <c r="G206" t="n">
         <v>51</v>
@@ -6847,10 +6847,10 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>-0.7862046398310026</v>
+        <v>0.360071637617547</v>
       </c>
       <c r="F207" t="n">
-        <v>8.151669387607212e-12</v>
+        <v>0.009448880246014493</v>
       </c>
       <c r="G207" t="n">
         <v>51</v>
@@ -6878,10 +6878,10 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>-0.7068280934885688</v>
+        <v>0.4956955975107817</v>
       </c>
       <c r="F208" t="n">
-        <v>6.76548400719907e-09</v>
+        <v>0.0002167215265821987</v>
       </c>
       <c r="G208" t="n">
         <v>51</v>
@@ -6909,10 +6909,10 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>-0.337701747321999</v>
+        <v>0.7572230930477668</v>
       </c>
       <c r="F209" t="n">
-        <v>0.01536953387244509</v>
+        <v>1.273836644878957e-10</v>
       </c>
       <c r="G209" t="n">
         <v>51</v>
@@ -6940,10 +6940,10 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>-0.1842540420707467</v>
+        <v>-0.02369648973474241</v>
       </c>
       <c r="F210" t="n">
-        <v>0.1955513466401494</v>
+        <v>0.8689010439557221</v>
       </c>
       <c r="G210" t="n">
         <v>51</v>
@@ -6971,10 +6971,10 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>-0.02599572761201946</v>
+        <v>-0.542878905943017</v>
       </c>
       <c r="F211" t="n">
-        <v>0.8563089011219343</v>
+        <v>3.857841126254618e-05</v>
       </c>
       <c r="G211" t="n">
         <v>51</v>
@@ -7002,10 +7002,10 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>0.07729615667299135</v>
+        <v>-0.5386417451822025</v>
       </c>
       <c r="F212" t="n">
-        <v>0.5897986642494685</v>
+        <v>4.552829433346899e-05</v>
       </c>
       <c r="G212" t="n">
         <v>51</v>
@@ -7033,10 +7033,10 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>0.7455488601457223</v>
+        <v>0.8181496616942748</v>
       </c>
       <c r="F213" t="n">
-        <v>3.469171578944817e-10</v>
+        <v>2.29933532587793e-13</v>
       </c>
       <c r="G213" t="n">
         <v>51</v>
@@ -7064,10 +7064,10 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>0.7486380366488059</v>
+        <v>0.8114734061138876</v>
       </c>
       <c r="F214" t="n">
-        <v>2.675425890522207e-10</v>
+        <v>5.122129157021979e-13</v>
       </c>
       <c r="G214" t="n">
         <v>51</v>
@@ -7095,10 +7095,10 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>0.7189057636271921</v>
+        <v>0.7987133937316797</v>
       </c>
       <c r="F215" t="n">
-        <v>2.823994298523539e-09</v>
+        <v>2.175492262854431e-12</v>
       </c>
       <c r="G215" t="n">
         <v>51</v>
@@ -7126,10 +7126,10 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>0.8462444891295893</v>
+        <v>0.8857626724451945</v>
       </c>
       <c r="F216" t="n">
-        <v>5.311939611507085e-15</v>
+        <v>5.898334430762639e-18</v>
       </c>
       <c r="G216" t="n">
         <v>51</v>
@@ -7157,10 +7157,10 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>-0.337701747321999</v>
+        <v>0.7572230930477668</v>
       </c>
       <c r="F217" t="n">
-        <v>0.01536953387244509</v>
+        <v>1.273836644878957e-10</v>
       </c>
       <c r="G217" t="n">
         <v>51</v>
@@ -7188,10 +7188,10 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>-0.0756711928641618</v>
+        <v>0.1105023470210953</v>
       </c>
       <c r="F218" t="n">
-        <v>0.5976652645761219</v>
+        <v>0.440144473255957</v>
       </c>
       <c r="G218" t="n">
         <v>51</v>
@@ -7219,10 +7219,10 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>-0.4732269666992307</v>
+        <v>0.03063720673346886</v>
       </c>
       <c r="F219" t="n">
-        <v>0.0004530680462176268</v>
+        <v>0.830999924982469</v>
       </c>
       <c r="G219" t="n">
         <v>51</v>
@@ -7250,10 +7250,10 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>0.07437624953731128</v>
+        <v>0.00511667299255763</v>
       </c>
       <c r="F220" t="n">
-        <v>0.6039670739750858</v>
+        <v>0.9715736518413741</v>
       </c>
       <c r="G220" t="n">
         <v>51</v>
@@ -7281,10 +7281,10 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>0.07223773611737501</v>
+        <v>0.008019386209071548</v>
       </c>
       <c r="F221" t="n">
-        <v>0.6144368607884663</v>
+        <v>0.9554605496230177</v>
       </c>
       <c r="G221" t="n">
         <v>51</v>
@@ -7312,10 +7312,10 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>0.07745727927806215</v>
+        <v>0.05775166008555676</v>
       </c>
       <c r="F222" t="n">
-        <v>0.5890211813788025</v>
+        <v>0.6872859173029784</v>
       </c>
       <c r="G222" t="n">
         <v>51</v>
@@ -7343,10 +7343,10 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0.1106254503882005</v>
+        <v>-0.01940631270416822</v>
       </c>
       <c r="F223" t="n">
-        <v>0.4396321281949837</v>
+        <v>0.8924808905038277</v>
       </c>
       <c r="G223" t="n">
         <v>51</v>
@@ -7374,10 +7374,10 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>0.1071561053081177</v>
+        <v>0.2254899780961481</v>
       </c>
       <c r="F224" t="n">
-        <v>0.4541977283249217</v>
+        <v>0.1116175215518893</v>
       </c>
       <c r="G224" t="n">
         <v>51</v>
@@ -7405,10 +7405,10 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>0.2096371713866931</v>
+        <v>0.1639315461422639</v>
       </c>
       <c r="F225" t="n">
-        <v>0.1398216223050257</v>
+        <v>0.2503585797396602</v>
       </c>
       <c r="G225" t="n">
         <v>51</v>
@@ -7436,10 +7436,10 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>-0.0756711928641618</v>
+        <v>0.1105023470210953</v>
       </c>
       <c r="F226" t="n">
-        <v>0.5976652645761219</v>
+        <v>0.440144473255957</v>
       </c>
       <c r="G226" t="n">
         <v>51</v>
@@ -7467,10 +7467,10 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>0.9142243800016183</v>
+        <v>0.9967947918251072</v>
       </c>
       <c r="F227" t="n">
-        <v>7.381679704109415e-21</v>
+        <v>2.030546211131041e-55</v>
       </c>
       <c r="G227" t="n">
         <v>51</v>
@@ -7498,10 +7498,10 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>0.100672783331544</v>
+        <v>-0.4825814318979142</v>
       </c>
       <c r="F228" t="n">
-        <v>0.4821100943234758</v>
+        <v>0.0003353492168230514</v>
       </c>
       <c r="G228" t="n">
         <v>51</v>
@@ -7529,10 +7529,10 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>0.07041778848498746</v>
+        <v>-0.474550817314792</v>
       </c>
       <c r="F229" t="n">
-        <v>0.6234074815291354</v>
+        <v>0.0004344073999776306</v>
       </c>
       <c r="G229" t="n">
         <v>51</v>
@@ -7560,10 +7560,10 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>0.05062825892125885</v>
+        <v>-0.4416077435706991</v>
       </c>
       <c r="F230" t="n">
-        <v>0.7242226112133487</v>
+        <v>0.001178439094579312</v>
       </c>
       <c r="G230" t="n">
         <v>51</v>
@@ -7591,10 +7591,10 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0.1244915426872342</v>
+        <v>-0.5198149868546623</v>
       </c>
       <c r="F231" t="n">
-        <v>0.3840819092678628</v>
+        <v>9.258450234959464e-05</v>
       </c>
       <c r="G231" t="n">
         <v>51</v>
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>-0.05466286169373275</v>
+        <v>-0.3431853018232085</v>
       </c>
       <c r="F232" t="n">
-        <v>0.7032194066385973</v>
+        <v>0.01368380275689124</v>
       </c>
       <c r="G232" t="n">
         <v>51</v>
@@ -7653,10 +7653,10 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>-0.007985976422370101</v>
+        <v>-0.622985920236813</v>
       </c>
       <c r="F233" t="n">
-        <v>0.9556459209382578</v>
+        <v>1.049707401208361e-06</v>
       </c>
       <c r="G233" t="n">
         <v>51</v>
@@ -7684,10 +7684,10 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>-0.4732269666992307</v>
+        <v>0.03063720673346886</v>
       </c>
       <c r="F234" t="n">
-        <v>0.0004530680462176268</v>
+        <v>0.830999924982469</v>
       </c>
       <c r="G234" t="n">
         <v>51</v>
@@ -7715,10 +7715,10 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>0.9142243800016183</v>
+        <v>0.9967947918251072</v>
       </c>
       <c r="F235" t="n">
-        <v>7.381679704109415e-21</v>
+        <v>2.030546211131041e-55</v>
       </c>
       <c r="G235" t="n">
         <v>51</v>
@@ -7746,10 +7746,10 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>0.05871721365106077</v>
+        <v>-0.4857389643006984</v>
       </c>
       <c r="F236" t="n">
-        <v>0.6823322307650419</v>
+        <v>0.0003023723727254799</v>
       </c>
       <c r="G236" t="n">
         <v>51</v>
@@ -7777,10 +7777,10 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>0.03285675908305624</v>
+        <v>-0.4778963096852677</v>
       </c>
       <c r="F237" t="n">
-        <v>0.8189553239606593</v>
+        <v>0.0003903074816808706</v>
       </c>
       <c r="G237" t="n">
         <v>51</v>
@@ -7808,10 +7808,10 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>0.01325214801954735</v>
+        <v>-0.4487689467864162</v>
       </c>
       <c r="F238" t="n">
-        <v>0.9264620380149698</v>
+        <v>0.0009566171582248438</v>
       </c>
       <c r="G238" t="n">
         <v>51</v>
@@ -7839,10 +7839,10 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>0.06502974575819281</v>
+        <v>-0.5212104119611428</v>
       </c>
       <c r="F239" t="n">
-        <v>0.6502805104633873</v>
+        <v>8.796502336719163e-05</v>
       </c>
       <c r="G239" t="n">
         <v>51</v>
@@ -7870,10 +7870,10 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>-0.09183859378071631</v>
+        <v>-0.3632884283778627</v>
       </c>
       <c r="F240" t="n">
-        <v>0.5215512961734523</v>
+        <v>0.008785945249113471</v>
       </c>
       <c r="G240" t="n">
         <v>51</v>
@@ -7901,10 +7901,10 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>-0.09224638305851411</v>
+        <v>-0.6397259115692487</v>
       </c>
       <c r="F241" t="n">
-        <v>0.519695940677265</v>
+        <v>4.329968989680328e-07</v>
       </c>
       <c r="G241" t="n">
         <v>51</v>
@@ -7932,10 +7932,10 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>0.07437624953731128</v>
+        <v>0.00511667299255763</v>
       </c>
       <c r="F242" t="n">
-        <v>0.6039670739750858</v>
+        <v>0.9715736518413741</v>
       </c>
       <c r="G242" t="n">
         <v>51</v>
@@ -7963,10 +7963,10 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>0.100672783331544</v>
+        <v>-0.4825814318979142</v>
       </c>
       <c r="F243" t="n">
-        <v>0.4821100943234758</v>
+        <v>0.0003353492168230514</v>
       </c>
       <c r="G243" t="n">
         <v>51</v>
@@ -7994,10 +7994,10 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>0.05871721365106077</v>
+        <v>-0.4857389643006984</v>
       </c>
       <c r="F244" t="n">
-        <v>0.6823322307650419</v>
+        <v>0.0003023723727254799</v>
       </c>
       <c r="G244" t="n">
         <v>51</v>
@@ -8025,10 +8025,10 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>0.9959264797507625</v>
+        <v>0.9962737746840282</v>
       </c>
       <c r="F245" t="n">
-        <v>7.147145241256926e-53</v>
+        <v>8.084806388637695e-54</v>
       </c>
       <c r="G245" t="n">
         <v>51</v>
@@ -8056,10 +8056,10 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>0.9819522035768866</v>
+        <v>0.9810777714391998</v>
       </c>
       <c r="F246" t="n">
-        <v>4.201419189599994e-37</v>
+        <v>1.325867801831283e-36</v>
       </c>
       <c r="G246" t="n">
         <v>51</v>
@@ -8087,10 +8087,10 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>0.9791904553087615</v>
+        <v>0.9891553563815397</v>
       </c>
       <c r="F247" t="n">
-        <v>1.332825290659139e-35</v>
+        <v>1.735130078974706e-42</v>
       </c>
       <c r="G247" t="n">
         <v>51</v>
@@ -8118,10 +8118,10 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>0.05807374600344351</v>
+        <v>0.3674954744432102</v>
       </c>
       <c r="F248" t="n">
-        <v>0.6856320252680066</v>
+        <v>0.007979952204232352</v>
       </c>
       <c r="G248" t="n">
         <v>51</v>
@@ -8149,10 +8149,10 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>0.8787705377420748</v>
+        <v>0.9019399704512157</v>
       </c>
       <c r="F249" t="n">
-        <v>2.325841718517235e-17</v>
+        <v>1.695872505667246e-19</v>
       </c>
       <c r="G249" t="n">
         <v>51</v>
@@ -8180,10 +8180,10 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>0.07223773611737501</v>
+        <v>0.008019386209071548</v>
       </c>
       <c r="F250" t="n">
-        <v>0.6144368607884663</v>
+        <v>0.9554605496230177</v>
       </c>
       <c r="G250" t="n">
         <v>51</v>
@@ -8211,10 +8211,10 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>0.07041778848498746</v>
+        <v>-0.474550817314792</v>
       </c>
       <c r="F251" t="n">
-        <v>0.6234074815291354</v>
+        <v>0.0004344073999776306</v>
       </c>
       <c r="G251" t="n">
         <v>51</v>
@@ -8242,10 +8242,10 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>0.03285675908305624</v>
+        <v>-0.4778963096852677</v>
       </c>
       <c r="F252" t="n">
-        <v>0.8189553239606593</v>
+        <v>0.0003903074816808706</v>
       </c>
       <c r="G252" t="n">
         <v>51</v>
@@ -8273,10 +8273,10 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>0.9959264797507625</v>
+        <v>0.9962737746840282</v>
       </c>
       <c r="F253" t="n">
-        <v>7.147145241256926e-53</v>
+        <v>8.084806388637695e-54</v>
       </c>
       <c r="G253" t="n">
         <v>51</v>
@@ -8304,10 +8304,10 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>0.9829988012342292</v>
+        <v>0.9868624837630426</v>
       </c>
       <c r="F254" t="n">
-        <v>9.838427551607519e-38</v>
+        <v>1.857069432024508e-40</v>
       </c>
       <c r="G254" t="n">
         <v>51</v>
@@ -8335,10 +8335,10 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>0.9754670168144092</v>
+        <v>0.9814107140246819</v>
       </c>
       <c r="F255" t="n">
-        <v>7.207333823366829e-34</v>
+        <v>8.615139349735302e-37</v>
       </c>
       <c r="G255" t="n">
         <v>51</v>
@@ -8366,10 +8366,10 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>0.06126070841801935</v>
+        <v>0.3298745043597676</v>
       </c>
       <c r="F256" t="n">
-        <v>0.6693468511179546</v>
+        <v>0.01808056799899877</v>
       </c>
       <c r="G256" t="n">
         <v>51</v>
@@ -8397,10 +8397,10 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>0.8773422479785462</v>
+        <v>0.8928695303608516</v>
       </c>
       <c r="F257" t="n">
-        <v>3.046398640660052e-17</v>
+        <v>1.330524643189034e-18</v>
       </c>
       <c r="G257" t="n">
         <v>51</v>
@@ -8428,10 +8428,10 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>0.07745727927806215</v>
+        <v>0.05775166008555676</v>
       </c>
       <c r="F258" t="n">
-        <v>0.5890211813788025</v>
+        <v>0.6872859173029784</v>
       </c>
       <c r="G258" t="n">
         <v>51</v>
@@ -8459,10 +8459,10 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>0.05062825892125885</v>
+        <v>-0.4416077435706991</v>
       </c>
       <c r="F259" t="n">
-        <v>0.7242226112133487</v>
+        <v>0.001178439094579312</v>
       </c>
       <c r="G259" t="n">
         <v>51</v>
@@ -8490,10 +8490,10 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>0.01325214801954735</v>
+        <v>-0.4487689467864162</v>
       </c>
       <c r="F260" t="n">
-        <v>0.9264620380149698</v>
+        <v>0.0009566171582248438</v>
       </c>
       <c r="G260" t="n">
         <v>51</v>
@@ -8521,10 +8521,10 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>0.9819522035768866</v>
+        <v>0.9810777714391998</v>
       </c>
       <c r="F261" t="n">
-        <v>4.201419189599994e-37</v>
+        <v>1.325867801831283e-36</v>
       </c>
       <c r="G261" t="n">
         <v>51</v>
@@ -8552,10 +8552,10 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>0.9829988012342292</v>
+        <v>0.9868624837630426</v>
       </c>
       <c r="F262" t="n">
-        <v>9.838427551607519e-38</v>
+        <v>1.857069432024508e-40</v>
       </c>
       <c r="G262" t="n">
         <v>51</v>
@@ -8583,10 +8583,10 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>0.951229794537035</v>
+        <v>0.9576828379850203</v>
       </c>
       <c r="F263" t="n">
-        <v>1.116331876153207e-26</v>
+        <v>3.715189633896406e-28</v>
       </c>
       <c r="G263" t="n">
         <v>51</v>
@@ -8614,10 +8614,10 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>0.03233424541291927</v>
+        <v>0.2983243218284579</v>
       </c>
       <c r="F264" t="n">
-        <v>0.8217871768402286</v>
+        <v>0.03347608686847993</v>
       </c>
       <c r="G264" t="n">
         <v>51</v>
@@ -8645,10 +8645,10 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>0.8593528548452648</v>
+        <v>0.8728968557995378</v>
       </c>
       <c r="F265" t="n">
-        <v>7.015519509242705e-16</v>
+        <v>6.909707016067545e-17</v>
       </c>
       <c r="G265" t="n">
         <v>51</v>
@@ -8676,10 +8676,10 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>0.1106254503882005</v>
+        <v>-0.01940631270416822</v>
       </c>
       <c r="F266" t="n">
-        <v>0.4396321281949837</v>
+        <v>0.8924808905038277</v>
       </c>
       <c r="G266" t="n">
         <v>51</v>
@@ -8707,10 +8707,10 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>0.1244915426872342</v>
+        <v>-0.5198149868546623</v>
       </c>
       <c r="F267" t="n">
-        <v>0.3840819092678628</v>
+        <v>9.258450234959464e-05</v>
       </c>
       <c r="G267" t="n">
         <v>51</v>
@@ -8738,10 +8738,10 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>0.06502974575819281</v>
+        <v>-0.5212104119611428</v>
       </c>
       <c r="F268" t="n">
-        <v>0.6502805104633873</v>
+        <v>8.796502336719163e-05</v>
       </c>
       <c r="G268" t="n">
         <v>51</v>
@@ -8769,10 +8769,10 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>0.9791904553087615</v>
+        <v>0.9891553563815397</v>
       </c>
       <c r="F269" t="n">
-        <v>1.332825290659139e-35</v>
+        <v>1.735130078974706e-42</v>
       </c>
       <c r="G269" t="n">
         <v>51</v>
@@ -8800,10 +8800,10 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>0.9754670168144092</v>
+        <v>0.9814107140246819</v>
       </c>
       <c r="F270" t="n">
-        <v>7.207333823366829e-34</v>
+        <v>8.615139349735302e-37</v>
       </c>
       <c r="G270" t="n">
         <v>51</v>
@@ -8831,10 +8831,10 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>0.951229794537035</v>
+        <v>0.9576828379850203</v>
       </c>
       <c r="F271" t="n">
-        <v>1.116331876153207e-26</v>
+        <v>3.715189633896406e-28</v>
       </c>
       <c r="G271" t="n">
         <v>51</v>
@@ -8862,10 +8862,10 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>0.2131056799494328</v>
+        <v>0.4088214402442553</v>
       </c>
       <c r="F272" t="n">
-        <v>0.1332374958320596</v>
+        <v>0.002896217691091506</v>
       </c>
       <c r="G272" t="n">
         <v>51</v>
@@ -8893,10 +8893,10 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>0.9365213712015429</v>
+        <v>0.9151252375825923</v>
       </c>
       <c r="F273" t="n">
-        <v>6.002660399708477e-24</v>
+        <v>5.759883291066438e-21</v>
       </c>
       <c r="G273" t="n">
         <v>51</v>
@@ -8924,10 +8924,10 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>0.1071561053081177</v>
+        <v>0.2254899780961481</v>
       </c>
       <c r="F274" t="n">
-        <v>0.4541977283249217</v>
+        <v>0.1116175215518893</v>
       </c>
       <c r="G274" t="n">
         <v>51</v>
@@ -8955,10 +8955,10 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-0.05466286169373275</v>
+        <v>-0.3431853018232085</v>
       </c>
       <c r="F275" t="n">
-        <v>0.7032194066385973</v>
+        <v>0.01368380275689124</v>
       </c>
       <c r="G275" t="n">
         <v>51</v>
@@ -8986,10 +8986,10 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>-0.09183859378071631</v>
+        <v>-0.3632884283778627</v>
       </c>
       <c r="F276" t="n">
-        <v>0.5215512961734523</v>
+        <v>0.008785945249113471</v>
       </c>
       <c r="G276" t="n">
         <v>51</v>
@@ -9017,10 +9017,10 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>0.05807374600344351</v>
+        <v>0.3674954744432102</v>
       </c>
       <c r="F277" t="n">
-        <v>0.6856320252680066</v>
+        <v>0.007979952204232352</v>
       </c>
       <c r="G277" t="n">
         <v>51</v>
@@ -9048,10 +9048,10 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>0.06126070841801935</v>
+        <v>0.3298745043597676</v>
       </c>
       <c r="F278" t="n">
-        <v>0.6693468511179546</v>
+        <v>0.01808056799899877</v>
       </c>
       <c r="G278" t="n">
         <v>51</v>
@@ -9079,10 +9079,10 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>0.03233424541291927</v>
+        <v>0.2983243218284579</v>
       </c>
       <c r="F279" t="n">
-        <v>0.8217871768402286</v>
+        <v>0.03347608686847993</v>
       </c>
       <c r="G279" t="n">
         <v>51</v>
@@ -9110,10 +9110,10 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>0.2131056799494328</v>
+        <v>0.4088214402442553</v>
       </c>
       <c r="F280" t="n">
-        <v>0.1332374958320596</v>
+        <v>0.002896217691091506</v>
       </c>
       <c r="G280" t="n">
         <v>51</v>
@@ -9141,10 +9141,10 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>0.4420739398261155</v>
+        <v>0.5274506458798871</v>
       </c>
       <c r="F281" t="n">
-        <v>0.001162707783644603</v>
+        <v>6.977678557879169e-05</v>
       </c>
       <c r="G281" t="n">
         <v>51</v>
@@ -9172,10 +9172,10 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>0.2096371713866931</v>
+        <v>0.1639315461422639</v>
       </c>
       <c r="F282" t="n">
-        <v>0.1398216223050257</v>
+        <v>0.2503585797396602</v>
       </c>
       <c r="G282" t="n">
         <v>51</v>
@@ -9203,10 +9203,10 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>-0.007985976422370101</v>
+        <v>-0.622985920236813</v>
       </c>
       <c r="F283" t="n">
-        <v>0.9556459209382578</v>
+        <v>1.049707401208361e-06</v>
       </c>
       <c r="G283" t="n">
         <v>51</v>
@@ -9234,10 +9234,10 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-0.09224638305851411</v>
+        <v>-0.6397259115692487</v>
       </c>
       <c r="F284" t="n">
-        <v>0.519695940677265</v>
+        <v>4.329968989680328e-07</v>
       </c>
       <c r="G284" t="n">
         <v>51</v>
@@ -9265,10 +9265,10 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>0.8787705377420748</v>
+        <v>0.9019399704512157</v>
       </c>
       <c r="F285" t="n">
-        <v>2.325841718517235e-17</v>
+        <v>1.695872505667246e-19</v>
       </c>
       <c r="G285" t="n">
         <v>51</v>
@@ -9296,10 +9296,10 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>0.8773422479785462</v>
+        <v>0.8928695303608516</v>
       </c>
       <c r="F286" t="n">
-        <v>3.046398640660052e-17</v>
+        <v>1.330524643189034e-18</v>
       </c>
       <c r="G286" t="n">
         <v>51</v>
@@ -9327,10 +9327,10 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>0.8593528548452648</v>
+        <v>0.8728968557995378</v>
       </c>
       <c r="F287" t="n">
-        <v>7.015519509242705e-16</v>
+        <v>6.909707016067545e-17</v>
       </c>
       <c r="G287" t="n">
         <v>51</v>
@@ -9358,10 +9358,10 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>0.9365213712015429</v>
+        <v>0.9151252375825923</v>
       </c>
       <c r="F288" t="n">
-        <v>6.002660399708477e-24</v>
+        <v>5.759883291066438e-21</v>
       </c>
       <c r="G288" t="n">
         <v>51</v>
@@ -9389,10 +9389,10 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>0.4420739398261155</v>
+        <v>0.5274506458798871</v>
       </c>
       <c r="F289" t="n">
-        <v>0.001162707783644603</v>
+        <v>6.977678557879169e-05</v>
       </c>
       <c r="G289" t="n">
         <v>51</v>
@@ -9420,10 +9420,10 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-0.4941371770243954</v>
+        <v>-0.1873218343043264</v>
       </c>
       <c r="F290" t="n">
-        <v>0.0002284726277241042</v>
+        <v>0.1880842697797011</v>
       </c>
       <c r="G290" t="n">
         <v>51</v>
@@ -9451,10 +9451,10 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>-0.6214495525282334</v>
+        <v>-0.2105766070183162</v>
       </c>
       <c r="F291" t="n">
-        <v>1.135638262073209e-06</v>
+        <v>0.1380148486903521</v>
       </c>
       <c r="G291" t="n">
         <v>51</v>
@@ -9482,10 +9482,10 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>-0.6510292702590516</v>
+        <v>0.3193669929747957</v>
       </c>
       <c r="F292" t="n">
-        <v>2.309044440298273e-07</v>
+        <v>0.02234927428872584</v>
       </c>
       <c r="G292" t="n">
         <v>51</v>
@@ -9513,10 +9513,10 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-0.6515448380179485</v>
+        <v>0.3250054342920466</v>
       </c>
       <c r="F293" t="n">
-        <v>2.242371280178183e-07</v>
+        <v>0.01996377317559676</v>
       </c>
       <c r="G293" t="n">
         <v>51</v>
@@ -9544,10 +9544,10 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>-0.6216685368461976</v>
+        <v>0.360752076276033</v>
       </c>
       <c r="F294" t="n">
-        <v>1.123002152602675e-06</v>
+        <v>0.009305156632503357</v>
       </c>
       <c r="G294" t="n">
         <v>51</v>
@@ -9575,10 +9575,10 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>-0.6412685550451684</v>
+        <v>0.3014902504289173</v>
       </c>
       <c r="F295" t="n">
-        <v>3.979928010120894e-07</v>
+        <v>0.03155541857377045</v>
       </c>
       <c r="G295" t="n">
         <v>51</v>
@@ -9606,10 +9606,10 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>-0.1713571526606908</v>
+        <v>0.3272705916665119</v>
       </c>
       <c r="F296" t="n">
-        <v>0.2292418085426371</v>
+        <v>0.01906800701360811</v>
       </c>
       <c r="G296" t="n">
         <v>51</v>
@@ -9637,10 +9637,10 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>-0.5775017243556948</v>
+        <v>0.3574184252770728</v>
       </c>
       <c r="F297" t="n">
-        <v>9.128311404485062e-06</v>
+        <v>0.01002777286301518</v>
       </c>
       <c r="G297" t="n">
         <v>51</v>
@@ -9668,10 +9668,10 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>-0.4941371770243954</v>
+        <v>-0.1873218343043264</v>
       </c>
       <c r="F298" t="n">
-        <v>0.0002284726277241042</v>
+        <v>0.1880842697797011</v>
       </c>
       <c r="G298" t="n">
         <v>51</v>
@@ -9699,10 +9699,10 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>0.9882038170285482</v>
+        <v>0.9997184627361446</v>
       </c>
       <c r="F299" t="n">
-        <v>1.347517648688005e-41</v>
+        <v>2.767642899771538e-81</v>
       </c>
       <c r="G299" t="n">
         <v>51</v>
@@ -9730,10 +9730,10 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>0.7261424898388298</v>
+        <v>0.2175163547993554</v>
       </c>
       <c r="F300" t="n">
-        <v>1.636813804246417e-09</v>
+        <v>0.1252041700946733</v>
       </c>
       <c r="G300" t="n">
         <v>51</v>
@@ -9761,10 +9761,10 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>0.7144058916667922</v>
+        <v>0.2266757720565219</v>
       </c>
       <c r="F301" t="n">
-        <v>3.930897078287646e-09</v>
+        <v>0.1096972212403306</v>
       </c>
       <c r="G301" t="n">
         <v>51</v>
@@ -9792,10 +9792,10 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>0.7271549701627603</v>
+        <v>0.2261404587982931</v>
       </c>
       <c r="F302" t="n">
-        <v>1.514481880746249e-09</v>
+        <v>0.110560962116537</v>
       </c>
       <c r="G302" t="n">
         <v>51</v>
@@ -9823,10 +9823,10 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>0.7344335514763913</v>
+        <v>0.2254309714757226</v>
       </c>
       <c r="F303" t="n">
-        <v>8.575887584222691e-10</v>
+        <v>0.111713745064352</v>
       </c>
       <c r="G303" t="n">
         <v>51</v>
@@ -9854,10 +9854,10 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>0.1462527386954892</v>
+        <v>-0.5977073453931984</v>
       </c>
       <c r="F304" t="n">
-        <v>0.3057975976334575</v>
+        <v>3.638319628581635e-06</v>
       </c>
       <c r="G304" t="n">
         <v>51</v>
@@ -9885,10 +9885,10 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>0.6049358592277727</v>
+        <v>0.008372031708125295</v>
       </c>
       <c r="F305" t="n">
-        <v>2.577958470993223e-06</v>
+        <v>0.9535040707809045</v>
       </c>
       <c r="G305" t="n">
         <v>51</v>
@@ -9916,10 +9916,10 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-0.6214495525282334</v>
+        <v>-0.2105766070183162</v>
       </c>
       <c r="F306" t="n">
-        <v>1.135638262073209e-06</v>
+        <v>0.1380148486903521</v>
       </c>
       <c r="G306" t="n">
         <v>51</v>
@@ -9947,10 +9947,10 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>0.9882038170285482</v>
+        <v>0.9997184627361446</v>
       </c>
       <c r="F307" t="n">
-        <v>1.347517648688005e-41</v>
+        <v>2.767642899771538e-81</v>
       </c>
       <c r="G307" t="n">
         <v>51</v>
@@ -9978,10 +9978,10 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>0.7690513221673149</v>
+        <v>0.2087565608860274</v>
       </c>
       <c r="F308" t="n">
-        <v>4.352490737959572e-11</v>
+        <v>0.1415312196394891</v>
       </c>
       <c r="G308" t="n">
         <v>51</v>
@@ -10009,10 +10009,10 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>0.7585655861564745</v>
+        <v>0.2177357579823214</v>
       </c>
       <c r="F309" t="n">
-        <v>1.131145884727822e-10</v>
+        <v>0.1248143351562586</v>
       </c>
       <c r="G309" t="n">
         <v>51</v>
@@ -10040,10 +10040,10 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>0.7647917533033567</v>
+        <v>0.2163395538802159</v>
       </c>
       <c r="F310" t="n">
-        <v>6.453661758733182e-11</v>
+        <v>0.1273108172369193</v>
       </c>
       <c r="G310" t="n">
         <v>51</v>
@@ -10071,10 +10071,10 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>0.7748035191774014</v>
+        <v>0.2170649519336177</v>
       </c>
       <c r="F311" t="n">
-        <v>2.522745139453864e-11</v>
+        <v>0.1260091128116642</v>
       </c>
       <c r="G311" t="n">
         <v>51</v>
@@ -10102,10 +10102,10 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>0.1619821864046674</v>
+        <v>-0.6027398296375029</v>
       </c>
       <c r="F312" t="n">
-        <v>0.2561134320335025</v>
+        <v>2.864974923209934e-06</v>
       </c>
       <c r="G312" t="n">
         <v>51</v>
@@ -10133,10 +10133,10 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>0.6468726510833108</v>
+        <v>-0.000301684880007111</v>
       </c>
       <c r="F313" t="n">
-        <v>2.918431024781598e-07</v>
+        <v>0.9983236075278438</v>
       </c>
       <c r="G313" t="n">
         <v>51</v>
@@ -10164,10 +10164,10 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>-0.6510292702590516</v>
+        <v>0.3193669929747957</v>
       </c>
       <c r="F314" t="n">
-        <v>2.309044440298273e-07</v>
+        <v>0.02234927428872584</v>
       </c>
       <c r="G314" t="n">
         <v>51</v>
@@ -10195,10 +10195,10 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>0.7261424898388298</v>
+        <v>0.2175163547993554</v>
       </c>
       <c r="F315" t="n">
-        <v>1.636813804246417e-09</v>
+        <v>0.1252041700946733</v>
       </c>
       <c r="G315" t="n">
         <v>51</v>
@@ -10226,10 +10226,10 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>0.7690513221673149</v>
+        <v>0.2087565608860274</v>
       </c>
       <c r="F316" t="n">
-        <v>4.352490737959572e-11</v>
+        <v>0.1415312196394891</v>
       </c>
       <c r="G316" t="n">
         <v>51</v>
@@ -10257,10 +10257,10 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>0.9997112642474717</v>
+        <v>0.9982336275139745</v>
       </c>
       <c r="F317" t="n">
-        <v>5.136997618643792e-81</v>
+        <v>9.434385539169142e-62</v>
       </c>
       <c r="G317" t="n">
         <v>51</v>
@@ -10288,10 +10288,10 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>0.9934604583896108</v>
+        <v>0.9930623833107237</v>
       </c>
       <c r="F318" t="n">
-        <v>7.562393162064199e-48</v>
+        <v>3.202172877417568e-47</v>
       </c>
       <c r="G318" t="n">
         <v>51</v>
@@ -10319,10 +10319,10 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>0.9790823824588726</v>
+        <v>0.9957084905454479</v>
       </c>
       <c r="F319" t="n">
-        <v>1.511312826226501e-35</v>
+        <v>2.557092982702727e-52</v>
       </c>
       <c r="G319" t="n">
         <v>51</v>
@@ -10350,10 +10350,10 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>0.2364439130336327</v>
+        <v>0.2956241828536175</v>
       </c>
       <c r="F320" t="n">
-        <v>0.09482731774249997</v>
+        <v>0.03518981585016019</v>
       </c>
       <c r="G320" t="n">
         <v>51</v>
@@ -10381,10 +10381,10 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>0.8836698986128561</v>
+        <v>0.948272997399408</v>
       </c>
       <c r="F321" t="n">
-        <v>8.975351708267922e-18</v>
+        <v>4.562870552589608e-26</v>
       </c>
       <c r="G321" t="n">
         <v>51</v>
@@ -10412,10 +10412,10 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-0.6515448380179485</v>
+        <v>0.3250054342920466</v>
       </c>
       <c r="F322" t="n">
-        <v>2.242371280178183e-07</v>
+        <v>0.01996377317559676</v>
       </c>
       <c r="G322" t="n">
         <v>51</v>
@@ -10443,10 +10443,10 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>0.7144058916667922</v>
+        <v>0.2266757720565219</v>
       </c>
       <c r="F323" t="n">
-        <v>3.930897078287646e-09</v>
+        <v>0.1096972212403306</v>
       </c>
       <c r="G323" t="n">
         <v>51</v>
@@ -10474,10 +10474,10 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>0.7585655861564745</v>
+        <v>0.2177357579823214</v>
       </c>
       <c r="F324" t="n">
-        <v>1.131145884727822e-10</v>
+        <v>0.1248143351562586</v>
       </c>
       <c r="G324" t="n">
         <v>51</v>
@@ -10505,10 +10505,10 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>0.9997112642474717</v>
+        <v>0.9982336275139745</v>
       </c>
       <c r="F325" t="n">
-        <v>5.136997618643792e-81</v>
+        <v>9.434385539169142e-62</v>
       </c>
       <c r="G325" t="n">
         <v>51</v>
@@ -10536,10 +10536,10 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>0.9924868977680522</v>
+        <v>0.9942437085955173</v>
       </c>
       <c r="F326" t="n">
-        <v>2.241476617311962e-46</v>
+        <v>3.350419974712068e-49</v>
       </c>
       <c r="G326" t="n">
         <v>51</v>
@@ -10567,10 +10567,10 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>0.9767514928469724</v>
+        <v>0.99380462528199</v>
       </c>
       <c r="F327" t="n">
-        <v>1.958565558988713e-34</v>
+        <v>2.018823266241643e-48</v>
       </c>
       <c r="G327" t="n">
         <v>51</v>
@@ -10598,10 +10598,10 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>0.2320623157942137</v>
+        <v>0.2985315752487392</v>
       </c>
       <c r="F328" t="n">
-        <v>0.1012910795919088</v>
+        <v>0.03334745680708555</v>
       </c>
       <c r="G328" t="n">
         <v>51</v>
@@ -10629,10 +10629,10 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>0.8816908270941358</v>
+        <v>0.9477475510107727</v>
       </c>
       <c r="F329" t="n">
-        <v>1.325217337256351e-17</v>
+        <v>5.809478886620692e-26</v>
       </c>
       <c r="G329" t="n">
         <v>51</v>
@@ -10660,10 +10660,10 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>-0.6216685368461976</v>
+        <v>0.360752076276033</v>
       </c>
       <c r="F330" t="n">
-        <v>1.123002152602675e-06</v>
+        <v>0.009305156632503357</v>
       </c>
       <c r="G330" t="n">
         <v>51</v>
@@ -10691,10 +10691,10 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>0.7271549701627603</v>
+        <v>0.2261404587982931</v>
       </c>
       <c r="F331" t="n">
-        <v>1.514481880746249e-09</v>
+        <v>0.110560962116537</v>
       </c>
       <c r="G331" t="n">
         <v>51</v>
@@ -10722,10 +10722,10 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>0.7647917533033567</v>
+        <v>0.2163395538802159</v>
       </c>
       <c r="F332" t="n">
-        <v>6.453661758733182e-11</v>
+        <v>0.1273108172369193</v>
       </c>
       <c r="G332" t="n">
         <v>51</v>
@@ -10753,10 +10753,10 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>0.9934604583896108</v>
+        <v>0.9930623833107237</v>
       </c>
       <c r="F333" t="n">
-        <v>7.562393162064199e-48</v>
+        <v>3.202172877417568e-47</v>
       </c>
       <c r="G333" t="n">
         <v>51</v>
@@ -10784,10 +10784,10 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>0.9924868977680522</v>
+        <v>0.9942437085955173</v>
       </c>
       <c r="F334" t="n">
-        <v>2.241476617311962e-46</v>
+        <v>3.350419974712068e-49</v>
       </c>
       <c r="G334" t="n">
         <v>51</v>
@@ -10815,10 +10815,10 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>0.9813962383665362</v>
+        <v>0.9868398650398973</v>
       </c>
       <c r="F335" t="n">
-        <v>8.779567702880806e-37</v>
+        <v>1.936510958810172e-40</v>
       </c>
       <c r="G335" t="n">
         <v>51</v>
@@ -10846,10 +10846,10 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>0.2901984644866102</v>
+        <v>0.2887607319910714</v>
       </c>
       <c r="F336" t="n">
-        <v>0.03885309133481982</v>
+        <v>0.03987472616640919</v>
       </c>
       <c r="G336" t="n">
         <v>51</v>
@@ -10877,10 +10877,10 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>0.9018622446578175</v>
+        <v>0.938810006538548</v>
       </c>
       <c r="F337" t="n">
-        <v>1.727525575808118e-19</v>
+        <v>2.507224535138253e-24</v>
       </c>
       <c r="G337" t="n">
         <v>51</v>
@@ -10908,10 +10908,10 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-0.6412685550451684</v>
+        <v>0.3014902504289173</v>
       </c>
       <c r="F338" t="n">
-        <v>3.979928010120894e-07</v>
+        <v>0.03155541857377045</v>
       </c>
       <c r="G338" t="n">
         <v>51</v>
@@ -10939,10 +10939,10 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>0.7344335514763913</v>
+        <v>0.2254309714757226</v>
       </c>
       <c r="F339" t="n">
-        <v>8.575887584222691e-10</v>
+        <v>0.111713745064352</v>
       </c>
       <c r="G339" t="n">
         <v>51</v>
@@ -10970,10 +10970,10 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>0.7748035191774014</v>
+        <v>0.2170649519336177</v>
       </c>
       <c r="F340" t="n">
-        <v>2.522745139453864e-11</v>
+        <v>0.1260091128116642</v>
       </c>
       <c r="G340" t="n">
         <v>51</v>
@@ -11001,10 +11001,10 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>0.9790823824588726</v>
+        <v>0.9957084905454479</v>
       </c>
       <c r="F341" t="n">
-        <v>1.511312826226501e-35</v>
+        <v>2.557092982702727e-52</v>
       </c>
       <c r="G341" t="n">
         <v>51</v>
@@ -11032,10 +11032,10 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>0.9767514928469724</v>
+        <v>0.99380462528199</v>
       </c>
       <c r="F342" t="n">
-        <v>1.958565558988713e-34</v>
+        <v>2.018823266241643e-48</v>
       </c>
       <c r="G342" t="n">
         <v>51</v>
@@ -11063,10 +11063,10 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>0.9813962383665362</v>
+        <v>0.9868398650398973</v>
       </c>
       <c r="F343" t="n">
-        <v>8.779567702880806e-37</v>
+        <v>1.936510958810172e-40</v>
       </c>
       <c r="G343" t="n">
         <v>51</v>
@@ -11094,10 +11094,10 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>0.4040761445410013</v>
+        <v>0.3115874975331798</v>
       </c>
       <c r="F344" t="n">
-        <v>0.003275049842193379</v>
+        <v>0.02603119868255562</v>
       </c>
       <c r="G344" t="n">
         <v>51</v>
@@ -11125,10 +11125,10 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>0.9525543065452775</v>
+        <v>0.9596807785852378</v>
       </c>
       <c r="F345" t="n">
-        <v>5.773901593557852e-27</v>
+        <v>1.162411645031146e-28</v>
       </c>
       <c r="G345" t="n">
         <v>51</v>
@@ -11156,10 +11156,10 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-0.1713571526606908</v>
+        <v>0.3272705916665119</v>
       </c>
       <c r="F346" t="n">
-        <v>0.2292418085426371</v>
+        <v>0.01906800701360811</v>
       </c>
       <c r="G346" t="n">
         <v>51</v>
@@ -11187,10 +11187,10 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>0.1462527386954892</v>
+        <v>-0.5977073453931984</v>
       </c>
       <c r="F347" t="n">
-        <v>0.3057975976334575</v>
+        <v>3.638319628581635e-06</v>
       </c>
       <c r="G347" t="n">
         <v>51</v>
@@ -11218,10 +11218,10 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>0.1619821864046674</v>
+        <v>-0.6027398296375029</v>
       </c>
       <c r="F348" t="n">
-        <v>0.2561134320335025</v>
+        <v>2.864974923209934e-06</v>
       </c>
       <c r="G348" t="n">
         <v>51</v>
@@ -11249,10 +11249,10 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>0.2364439130336327</v>
+        <v>0.2956241828536175</v>
       </c>
       <c r="F349" t="n">
-        <v>0.09482731774249997</v>
+        <v>0.03518981585016019</v>
       </c>
       <c r="G349" t="n">
         <v>51</v>
@@ -11280,10 +11280,10 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>0.2320623157942137</v>
+        <v>0.2985315752487392</v>
       </c>
       <c r="F350" t="n">
-        <v>0.1012910795919088</v>
+        <v>0.03334745680708555</v>
       </c>
       <c r="G350" t="n">
         <v>51</v>
@@ -11311,10 +11311,10 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>0.2901984644866102</v>
+        <v>0.2887607319910714</v>
       </c>
       <c r="F351" t="n">
-        <v>0.03885309133481982</v>
+        <v>0.03987472616640919</v>
       </c>
       <c r="G351" t="n">
         <v>51</v>
@@ -11342,10 +11342,10 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>0.4040761445410013</v>
+        <v>0.3115874975331798</v>
       </c>
       <c r="F352" t="n">
-        <v>0.003275049842193379</v>
+        <v>0.02603119868255562</v>
       </c>
       <c r="G352" t="n">
         <v>51</v>
@@ -11373,10 +11373,10 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>0.6425366054342936</v>
+        <v>0.5197097864107011</v>
       </c>
       <c r="F353" t="n">
-        <v>3.712182891967655e-07</v>
+        <v>9.294160168370029e-05</v>
       </c>
       <c r="G353" t="n">
         <v>51</v>
@@ -11404,10 +11404,10 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>-0.5775017243556948</v>
+        <v>0.3574184252770728</v>
       </c>
       <c r="F354" t="n">
-        <v>9.128311404485062e-06</v>
+        <v>0.01002777286301518</v>
       </c>
       <c r="G354" t="n">
         <v>51</v>
@@ -11435,10 +11435,10 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>0.6049358592277727</v>
+        <v>0.008372031708125295</v>
       </c>
       <c r="F355" t="n">
-        <v>2.577958470993223e-06</v>
+        <v>0.9535040707809045</v>
       </c>
       <c r="G355" t="n">
         <v>51</v>
@@ -11466,10 +11466,10 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>0.6468726510833108</v>
+        <v>-0.000301684880007111</v>
       </c>
       <c r="F356" t="n">
-        <v>2.918431024781598e-07</v>
+        <v>0.9983236075278438</v>
       </c>
       <c r="G356" t="n">
         <v>51</v>
@@ -11497,10 +11497,10 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>0.8836698986128561</v>
+        <v>0.948272997399408</v>
       </c>
       <c r="F357" t="n">
-        <v>8.975351708267922e-18</v>
+        <v>4.562870552589608e-26</v>
       </c>
       <c r="G357" t="n">
         <v>51</v>
@@ -11528,10 +11528,10 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>0.8816908270941358</v>
+        <v>0.9477475510107727</v>
       </c>
       <c r="F358" t="n">
-        <v>1.325217337256351e-17</v>
+        <v>5.809478886620692e-26</v>
       </c>
       <c r="G358" t="n">
         <v>51</v>
@@ -11559,10 +11559,10 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>0.9018622446578175</v>
+        <v>0.938810006538548</v>
       </c>
       <c r="F359" t="n">
-        <v>1.727525575808118e-19</v>
+        <v>2.507224535138253e-24</v>
       </c>
       <c r="G359" t="n">
         <v>51</v>
@@ -11590,10 +11590,10 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>0.9525543065452775</v>
+        <v>0.9596807785852378</v>
       </c>
       <c r="F360" t="n">
-        <v>5.773901593557852e-27</v>
+        <v>1.162411645031146e-28</v>
       </c>
       <c r="G360" t="n">
         <v>51</v>
@@ -11621,10 +11621,10 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>0.6425366054342936</v>
+        <v>0.5197097864107011</v>
       </c>
       <c r="F361" t="n">
-        <v>3.712182891967655e-07</v>
+        <v>9.294160168370029e-05</v>
       </c>
       <c r="G361" t="n">
         <v>51</v>
@@ -11652,10 +11652,10 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>0.1590921571214746</v>
+        <v>0.2880628361768972</v>
       </c>
       <c r="F362" t="n">
-        <v>0.2648080088500501</v>
+        <v>0.04037854592299846</v>
       </c>
       <c r="G362" t="n">
         <v>51</v>
@@ -11683,10 +11683,10 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-0.3080331450908613</v>
+        <v>0.2503309641850128</v>
       </c>
       <c r="F363" t="n">
-        <v>0.02787529784532495</v>
+        <v>0.0764394037396382</v>
       </c>
       <c r="G363" t="n">
         <v>51</v>
@@ -11714,10 +11714,10 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-0.1014135140070122</v>
+        <v>-0.4121773680031894</v>
       </c>
       <c r="F364" t="n">
-        <v>0.4788760392991925</v>
+        <v>0.002652227845938926</v>
       </c>
       <c r="G364" t="n">
         <v>51</v>
@@ -11745,10 +11745,10 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-0.09794896333023402</v>
+        <v>-0.4124442680162307</v>
       </c>
       <c r="F365" t="n">
-        <v>0.4941006767075222</v>
+        <v>0.002633628218612887</v>
       </c>
       <c r="G365" t="n">
         <v>51</v>
@@ -11776,10 +11776,10 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>-0.1302458905919147</v>
+        <v>-0.4232905203528891</v>
       </c>
       <c r="F366" t="n">
-        <v>0.3623105772417113</v>
+        <v>0.001968988650396597</v>
       </c>
       <c r="G366" t="n">
         <v>51</v>
@@ -11807,10 +11807,10 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>-0.02938764561375731</v>
+        <v>-0.451594186693098</v>
       </c>
       <c r="F367" t="n">
-        <v>0.8377979320786316</v>
+        <v>0.0008799611749572221</v>
       </c>
       <c r="G367" t="n">
         <v>51</v>
@@ -11838,10 +11838,10 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-0.0886462510587977</v>
+        <v>0.5842633039687697</v>
       </c>
       <c r="F368" t="n">
-        <v>0.5361889776019418</v>
+        <v>6.755916307844693e-06</v>
       </c>
       <c r="G368" t="n">
         <v>51</v>
@@ -11869,10 +11869,10 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>-0.06520605222823915</v>
+        <v>-0.266764366036003</v>
       </c>
       <c r="F369" t="n">
-        <v>0.6493939219468446</v>
+        <v>0.05845111199912242</v>
       </c>
       <c r="G369" t="n">
         <v>51</v>
@@ -11900,10 +11900,10 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>0.1590921571214746</v>
+        <v>0.2880628361768972</v>
       </c>
       <c r="F370" t="n">
-        <v>0.2648080088500501</v>
+        <v>0.04037854592299846</v>
       </c>
       <c r="G370" t="n">
         <v>51</v>
@@ -11931,10 +11931,10 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>0.8902529977722654</v>
+        <v>0.9992325141954355</v>
       </c>
       <c r="F371" t="n">
-        <v>2.329535988523363e-18</v>
+        <v>1.289203154793456e-70</v>
       </c>
       <c r="G371" t="n">
         <v>51</v>
@@ -11962,10 +11962,10 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>-0.04733855851383441</v>
+        <v>-0.6404201550267349</v>
       </c>
       <c r="F372" t="n">
-        <v>0.7414990147647414</v>
+        <v>4.169023707783713e-07</v>
       </c>
       <c r="G372" t="n">
         <v>51</v>
@@ -11993,10 +11993,10 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>-0.06090159753429818</v>
+        <v>-0.6160805842493852</v>
       </c>
       <c r="F373" t="n">
-        <v>0.6711745405150139</v>
+        <v>1.490149415640751e-06</v>
       </c>
       <c r="G373" t="n">
         <v>51</v>
@@ -12024,10 +12024,10 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-0.04742072349610721</v>
+        <v>-0.4935732706732711</v>
       </c>
       <c r="F374" t="n">
-        <v>0.7410659299921584</v>
+        <v>0.0002328654244737416</v>
       </c>
       <c r="G374" t="n">
         <v>51</v>
@@ -12055,10 +12055,10 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>0.1260327894502432</v>
+        <v>-0.7318559755809824</v>
       </c>
       <c r="F375" t="n">
-        <v>0.378175992481896</v>
+        <v>1.051123428048501e-09</v>
       </c>
       <c r="G375" t="n">
         <v>51</v>
@@ -12086,10 +12086,10 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>0.2727739948929712</v>
+        <v>0.005926532469257673</v>
       </c>
       <c r="F376" t="n">
-        <v>0.05279393095907085</v>
+        <v>0.9670766774473075</v>
       </c>
       <c r="G376" t="n">
         <v>51</v>
@@ -12117,10 +12117,10 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>0.1161909982216619</v>
+        <v>-0.8411027181516896</v>
       </c>
       <c r="F377" t="n">
-        <v>0.4168179282726823</v>
+        <v>1.117086206979e-14</v>
       </c>
       <c r="G377" t="n">
         <v>51</v>
@@ -12148,10 +12148,10 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-0.3080331450908613</v>
+        <v>0.2503309641850128</v>
       </c>
       <c r="F378" t="n">
-        <v>0.02787529784532495</v>
+        <v>0.0764394037396382</v>
       </c>
       <c r="G378" t="n">
         <v>51</v>
@@ -12179,10 +12179,10 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>0.8902529977722654</v>
+        <v>0.9992325141954355</v>
       </c>
       <c r="F379" t="n">
-        <v>2.329535988523363e-18</v>
+        <v>1.289203154793456e-70</v>
       </c>
       <c r="G379" t="n">
         <v>51</v>
@@ -12210,10 +12210,10 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>0.001168576066091936</v>
+        <v>-0.6306147087351818</v>
       </c>
       <c r="F380" t="n">
-        <v>0.9935065603491606</v>
+        <v>7.057206175133094e-07</v>
       </c>
       <c r="G380" t="n">
         <v>51</v>
@@ -12241,10 +12241,10 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-0.0134997749194093</v>
+        <v>-0.6059961016696144</v>
       </c>
       <c r="F381" t="n">
-        <v>0.9250918061383897</v>
+        <v>2.449170228106546e-06</v>
       </c>
       <c r="G381" t="n">
         <v>51</v>
@@ -12272,10 +12272,10 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>0.01439098787543623</v>
+        <v>-0.4816956106542588</v>
       </c>
       <c r="F382" t="n">
-        <v>0.9201621308583059</v>
+        <v>0.0003451686401904529</v>
       </c>
       <c r="G382" t="n">
         <v>51</v>
@@ -12303,10 +12303,10 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>0.1350091194673605</v>
+        <v>-0.7214454148064856</v>
       </c>
       <c r="F383" t="n">
-        <v>0.3448684387716517</v>
+        <v>2.336567478225923e-09</v>
       </c>
       <c r="G383" t="n">
         <v>51</v>
@@ -12334,10 +12334,10 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>0.3037546136924843</v>
+        <v>-0.01790753190698476</v>
       </c>
       <c r="F384" t="n">
-        <v>0.03023862131533196</v>
+        <v>0.900741376573912</v>
       </c>
       <c r="G384" t="n">
         <v>51</v>
@@ -12365,10 +12365,10 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>0.1420496280290087</v>
+        <v>-0.8394560751084548</v>
       </c>
       <c r="F385" t="n">
-        <v>0.3200564184929901</v>
+        <v>1.409509753695194e-14</v>
       </c>
       <c r="G385" t="n">
         <v>51</v>
@@ -12396,10 +12396,10 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>-0.1014135140070122</v>
+        <v>-0.4121773680031894</v>
       </c>
       <c r="F386" t="n">
-        <v>0.4788760392991925</v>
+        <v>0.002652227845938926</v>
       </c>
       <c r="G386" t="n">
         <v>51</v>
@@ -12427,10 +12427,10 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>-0.04733855851383441</v>
+        <v>-0.6404201550267349</v>
       </c>
       <c r="F387" t="n">
-        <v>0.7414990147647414</v>
+        <v>4.169023707783713e-07</v>
       </c>
       <c r="G387" t="n">
         <v>51</v>
@@ -12458,10 +12458,10 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>0.001168576066091936</v>
+        <v>-0.6306147087351818</v>
       </c>
       <c r="F388" t="n">
-        <v>0.9935065603491606</v>
+        <v>7.057206175133094e-07</v>
       </c>
       <c r="G388" t="n">
         <v>51</v>
@@ -12489,10 +12489,10 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>0.9997363074299754</v>
+        <v>0.9946863145168822</v>
       </c>
       <c r="F389" t="n">
-        <v>5.565020092011955e-82</v>
+        <v>4.742148642616261e-50</v>
       </c>
       <c r="G389" t="n">
         <v>51</v>
@@ -12520,10 +12520,10 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>0.9778295301149856</v>
+        <v>0.9663841707372695</v>
       </c>
       <c r="F390" t="n">
-        <v>6.19563084515443e-35</v>
+        <v>1.459065195356692e-30</v>
       </c>
       <c r="G390" t="n">
         <v>51</v>
@@ -12551,10 +12551,10 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>0.888256403998728</v>
+        <v>0.9778071854647082</v>
       </c>
       <c r="F391" t="n">
-        <v>3.538237761550878e-18</v>
+        <v>6.348823467076531e-35</v>
       </c>
       <c r="G391" t="n">
         <v>51</v>
@@ -12582,10 +12582,10 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>0.4797186101330525</v>
+        <v>-0.2268259157915111</v>
       </c>
       <c r="F392" t="n">
-        <v>0.0003680298669999315</v>
+        <v>0.1094558911453362</v>
       </c>
       <c r="G392" t="n">
         <v>51</v>
@@ -12613,10 +12613,10 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>0.7927074631277535</v>
+        <v>0.7040970325149999</v>
       </c>
       <c r="F393" t="n">
-        <v>4.148497274763887e-12</v>
+        <v>8.193711456199803e-09</v>
       </c>
       <c r="G393" t="n">
         <v>51</v>
@@ -12644,10 +12644,10 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>-0.09794896333023402</v>
+        <v>-0.4124442680162307</v>
       </c>
       <c r="F394" t="n">
-        <v>0.4941006767075222</v>
+        <v>0.002633628218612887</v>
       </c>
       <c r="G394" t="n">
         <v>51</v>
@@ -12675,10 +12675,10 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>-0.06090159753429818</v>
+        <v>-0.6160805842493852</v>
       </c>
       <c r="F395" t="n">
-        <v>0.6711745405150139</v>
+        <v>1.490149415640751e-06</v>
       </c>
       <c r="G395" t="n">
         <v>51</v>
@@ -12706,10 +12706,10 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>-0.0134997749194093</v>
+        <v>-0.6059961016696144</v>
       </c>
       <c r="F396" t="n">
-        <v>0.9250918061383897</v>
+        <v>2.449170228106546e-06</v>
       </c>
       <c r="G396" t="n">
         <v>51</v>
@@ -12737,10 +12737,10 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>0.9997363074299754</v>
+        <v>0.9946863145168822</v>
       </c>
       <c r="F397" t="n">
-        <v>5.565020092011955e-82</v>
+        <v>4.742148642616261e-50</v>
       </c>
       <c r="G397" t="n">
         <v>51</v>
@@ -12768,10 +12768,10 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>0.9767451374485885</v>
+        <v>0.9698922206121109</v>
       </c>
       <c r="F398" t="n">
-        <v>1.971582303127408e-34</v>
+        <v>1.020555795444598e-31</v>
       </c>
       <c r="G398" t="n">
         <v>51</v>
@@ -12799,10 +12799,10 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>0.8863960048420104</v>
+        <v>0.9630705265016005</v>
       </c>
       <c r="F399" t="n">
-        <v>5.186250287989749e-18</v>
+        <v>1.405646379231241e-29</v>
       </c>
       <c r="G399" t="n">
         <v>51</v>
@@ -12830,10 +12830,10 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>0.4762563432621695</v>
+        <v>-0.2210863000305645</v>
       </c>
       <c r="F400" t="n">
-        <v>0.0004113919616782919</v>
+        <v>0.1189744436259715</v>
       </c>
       <c r="G400" t="n">
         <v>51</v>
@@ -12861,10 +12861,10 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>0.7906912508380292</v>
+        <v>0.6756013783823439</v>
       </c>
       <c r="F401" t="n">
-        <v>5.128008383152123e-12</v>
+        <v>5.357047865487015e-08</v>
       </c>
       <c r="G401" t="n">
         <v>51</v>
@@ -12892,10 +12892,10 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>-0.1302458905919147</v>
+        <v>-0.4232905203528891</v>
       </c>
       <c r="F402" t="n">
-        <v>0.3623105772417113</v>
+        <v>0.001968988650396597</v>
       </c>
       <c r="G402" t="n">
         <v>51</v>
@@ -12923,10 +12923,10 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-0.04742072349610721</v>
+        <v>-0.4935732706732711</v>
       </c>
       <c r="F403" t="n">
-        <v>0.7410659299921584</v>
+        <v>0.0002328654244737416</v>
       </c>
       <c r="G403" t="n">
         <v>51</v>
@@ -12954,10 +12954,10 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>0.01439098787543623</v>
+        <v>-0.4816956106542588</v>
       </c>
       <c r="F404" t="n">
-        <v>0.9201621308583059</v>
+        <v>0.0003451686401904529</v>
       </c>
       <c r="G404" t="n">
         <v>51</v>
@@ -12985,10 +12985,10 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>0.9778295301149856</v>
+        <v>0.9663841707372695</v>
       </c>
       <c r="F405" t="n">
-        <v>6.19563084515443e-35</v>
+        <v>1.459065195356692e-30</v>
       </c>
       <c r="G405" t="n">
         <v>51</v>
@@ -13016,10 +13016,10 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>0.9767451374485885</v>
+        <v>0.9698922206121109</v>
       </c>
       <c r="F406" t="n">
-        <v>1.971582303127408e-34</v>
+        <v>1.020555795444598e-31</v>
       </c>
       <c r="G406" t="n">
         <v>51</v>
@@ -13047,10 +13047,10 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>0.83446050188086</v>
+        <v>0.9221187237936362</v>
       </c>
       <c r="F407" t="n">
-        <v>2.809472898194438e-14</v>
+        <v>7.604621705016203e-22</v>
       </c>
       <c r="G407" t="n">
         <v>51</v>
@@ -13078,10 +13078,10 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>0.3996909914277511</v>
+        <v>-0.248549243888</v>
       </c>
       <c r="F408" t="n">
-        <v>0.003663336287583337</v>
+        <v>0.07862734894822183</v>
       </c>
       <c r="G408" t="n">
         <v>51</v>
@@ -13109,10 +13109,10 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>0.7253022721197878</v>
+        <v>0.5994916134645115</v>
       </c>
       <c r="F409" t="n">
-        <v>1.745348139752067e-09</v>
+        <v>3.344319213007755e-06</v>
       </c>
       <c r="G409" t="n">
         <v>51</v>
@@ -13140,10 +13140,10 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-0.02938764561375731</v>
+        <v>-0.451594186693098</v>
       </c>
       <c r="F410" t="n">
-        <v>0.8377979320786316</v>
+        <v>0.0008799611749572221</v>
       </c>
       <c r="G410" t="n">
         <v>51</v>
@@ -13171,10 +13171,10 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>0.1260327894502432</v>
+        <v>-0.7318559755809824</v>
       </c>
       <c r="F411" t="n">
-        <v>0.378175992481896</v>
+        <v>1.051123428048501e-09</v>
       </c>
       <c r="G411" t="n">
         <v>51</v>
@@ -13202,10 +13202,10 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>0.1350091194673605</v>
+        <v>-0.7214454148064856</v>
       </c>
       <c r="F412" t="n">
-        <v>0.3448684387716517</v>
+        <v>2.336567478225923e-09</v>
       </c>
       <c r="G412" t="n">
         <v>51</v>
@@ -13233,10 +13233,10 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>0.888256403998728</v>
+        <v>0.9778071854647082</v>
       </c>
       <c r="F413" t="n">
-        <v>3.538237761550878e-18</v>
+        <v>6.348823467076531e-35</v>
       </c>
       <c r="G413" t="n">
         <v>51</v>
@@ -13264,10 +13264,10 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>0.8863960048420104</v>
+        <v>0.9630705265016005</v>
       </c>
       <c r="F414" t="n">
-        <v>5.186250287989749e-18</v>
+        <v>1.405646379231241e-29</v>
       </c>
       <c r="G414" t="n">
         <v>51</v>
@@ -13295,10 +13295,10 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>0.83446050188086</v>
+        <v>0.9221187237936362</v>
       </c>
       <c r="F415" t="n">
-        <v>2.809472898194438e-14</v>
+        <v>7.604621705016203e-22</v>
       </c>
       <c r="G415" t="n">
         <v>51</v>
@@ -13326,10 +13326,10 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>0.7913982063284419</v>
+        <v>-0.2120837626564296</v>
       </c>
       <c r="F416" t="n">
-        <v>4.761947518975609e-12</v>
+        <v>0.1351527135697963</v>
       </c>
       <c r="G416" t="n">
         <v>51</v>
@@ -13357,10 +13357,10 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>0.9737771861162647</v>
+        <v>0.7743224064226034</v>
       </c>
       <c r="F417" t="n">
-        <v>3.615346222655563e-33</v>
+        <v>2.642101085913833e-11</v>
       </c>
       <c r="G417" t="n">
         <v>51</v>
@@ -13388,10 +13388,10 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>-0.0886462510587977</v>
+        <v>0.5842633039687697</v>
       </c>
       <c r="F418" t="n">
-        <v>0.5361889776019418</v>
+        <v>6.755916307844693e-06</v>
       </c>
       <c r="G418" t="n">
         <v>51</v>
@@ -13419,10 +13419,10 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>0.2727739948929712</v>
+        <v>0.005926532469257673</v>
       </c>
       <c r="F419" t="n">
-        <v>0.05279393095907085</v>
+        <v>0.9670766774473075</v>
       </c>
       <c r="G419" t="n">
         <v>51</v>
@@ -13450,10 +13450,10 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>0.3037546136924843</v>
+        <v>-0.01790753190698476</v>
       </c>
       <c r="F420" t="n">
-        <v>0.03023862131533196</v>
+        <v>0.900741376573912</v>
       </c>
       <c r="G420" t="n">
         <v>51</v>
@@ -13481,10 +13481,10 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>0.4797186101330525</v>
+        <v>-0.2268259157915111</v>
       </c>
       <c r="F421" t="n">
-        <v>0.0003680298669999315</v>
+        <v>0.1094558911453362</v>
       </c>
       <c r="G421" t="n">
         <v>51</v>
@@ -13512,10 +13512,10 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>0.4762563432621695</v>
+        <v>-0.2210863000305645</v>
       </c>
       <c r="F422" t="n">
-        <v>0.0004113919616782919</v>
+        <v>0.1189744436259715</v>
       </c>
       <c r="G422" t="n">
         <v>51</v>
@@ -13543,10 +13543,10 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>0.3996909914277511</v>
+        <v>-0.248549243888</v>
       </c>
       <c r="F423" t="n">
-        <v>0.003663336287583337</v>
+        <v>0.07862734894822183</v>
       </c>
       <c r="G423" t="n">
         <v>51</v>
@@ -13574,10 +13574,10 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>0.7913982063284419</v>
+        <v>-0.2120837626564296</v>
       </c>
       <c r="F424" t="n">
-        <v>4.761947518975609e-12</v>
+        <v>0.1351527135697963</v>
       </c>
       <c r="G424" t="n">
         <v>51</v>
@@ -13605,10 +13605,10 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>0.8875230004542097</v>
+        <v>0.06801146010325822</v>
       </c>
       <c r="F425" t="n">
-        <v>4.117193573693699e-18</v>
+        <v>0.6353518407473164</v>
       </c>
       <c r="G425" t="n">
         <v>51</v>
@@ -13636,10 +13636,10 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-0.06520605222823915</v>
+        <v>-0.266764366036003</v>
       </c>
       <c r="F426" t="n">
-        <v>0.6493939219468446</v>
+        <v>0.05845111199912242</v>
       </c>
       <c r="G426" t="n">
         <v>51</v>
@@ -13667,10 +13667,10 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>0.1161909982216619</v>
+        <v>-0.8411027181516896</v>
       </c>
       <c r="F427" t="n">
-        <v>0.4168179282726823</v>
+        <v>1.117086206979e-14</v>
       </c>
       <c r="G427" t="n">
         <v>51</v>
@@ -13698,10 +13698,10 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>0.1420496280290087</v>
+        <v>-0.8394560751084548</v>
       </c>
       <c r="F428" t="n">
-        <v>0.3200564184929901</v>
+        <v>1.409509753695194e-14</v>
       </c>
       <c r="G428" t="n">
         <v>51</v>
@@ -13729,10 +13729,10 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>0.7927074631277535</v>
+        <v>0.7040970325149999</v>
       </c>
       <c r="F429" t="n">
-        <v>4.148497274763887e-12</v>
+        <v>8.193711456199803e-09</v>
       </c>
       <c r="G429" t="n">
         <v>51</v>
@@ -13760,10 +13760,10 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>0.7906912508380292</v>
+        <v>0.6756013783823439</v>
       </c>
       <c r="F430" t="n">
-        <v>5.128008383152123e-12</v>
+        <v>5.357047865487015e-08</v>
       </c>
       <c r="G430" t="n">
         <v>51</v>
@@ -13791,10 +13791,10 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>0.7253022721197878</v>
+        <v>0.5994916134645115</v>
       </c>
       <c r="F431" t="n">
-        <v>1.745348139752067e-09</v>
+        <v>3.344319213007755e-06</v>
       </c>
       <c r="G431" t="n">
         <v>51</v>
@@ -13822,10 +13822,10 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>0.9737771861162647</v>
+        <v>0.7743224064226034</v>
       </c>
       <c r="F432" t="n">
-        <v>3.615346222655563e-33</v>
+        <v>2.642101085913833e-11</v>
       </c>
       <c r="G432" t="n">
         <v>51</v>
@@ -13853,10 +13853,10 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>0.8875230004542097</v>
+        <v>0.06801146010325822</v>
       </c>
       <c r="F433" t="n">
-        <v>4.117193573693699e-18</v>
+        <v>0.6353518407473164</v>
       </c>
       <c r="G433" t="n">
         <v>51</v>
